--- a/metadata/IMM_AEFI/IMM-AEFI_TRACKER_V1_DHIS2.33/reference.xlsx
+++ b/metadata/IMM_AEFI/IMM-AEFI_TRACKER_V1_DHIS2.33/reference.xlsx
@@ -493,7 +493,7 @@
         <v>Created</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>2020-12-16T09:23</v>
+        <v>2020-12-17T21:10</v>
       </c>
     </row>
     <row r="7">
@@ -501,7 +501,7 @@
         <v>Identifier</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>IMM-AEFI_TRACKER_V1.0.0_DHIS2.33_2020-12-16T09:23</v>
+        <v>IMM-AEFI_TRACKER_V1.0.0_DHIS2.33_2020-12-17T21:10</v>
       </c>
     </row>
   </sheetData>
@@ -550,7 +550,7 @@
         <v>h5FuguPFF2j</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>2020-11-25</v>
+        <v>2020-12-17</v>
       </c>
       <c r="E2" s="4" t="str">
         <v>EZkN8vYZwjR</v>
@@ -567,7 +567,7 @@
         <v>KSr2yTdu1AI</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>2020-11-25</v>
+        <v>2020-12-17</v>
       </c>
       <c r="E3" s="5" t="str">
         <v>EZkN8vYZwjR</v>
@@ -584,7 +584,7 @@
         <v>TfdH5KvFmMy</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>2020-11-25</v>
+        <v>2020-12-17</v>
       </c>
       <c r="E4" s="4" t="str">
         <v>EZkN8vYZwjR</v>
@@ -601,7 +601,7 @@
         <v>aW66s2QSosT</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>2020-11-25</v>
+        <v>2020-12-17</v>
       </c>
       <c r="E5" s="5" t="str">
         <v>EZkN8vYZwjR</v>
@@ -618,7 +618,7 @@
         <v>BiTsLcJQ95V</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>2020-11-25</v>
+        <v>2020-12-17</v>
       </c>
       <c r="E6" s="4" t="str">
         <v>EZkN8vYZwjR</v>
@@ -635,7 +635,7 @@
         <v>CklPZdOd6H1</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>2020-11-25</v>
+        <v>2020-12-17</v>
       </c>
       <c r="E7" s="5" t="str">
         <v>EZkN8vYZwjR</v>
@@ -652,7 +652,7 @@
         <v>VCtm2pySeEV</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>2020-11-25</v>
+        <v>2020-12-17</v>
       </c>
       <c r="E8" s="4" t="str">
         <v>EZkN8vYZwjR</v>
@@ -669,7 +669,7 @@
         <v>pjexi5YaAPa</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>2020-11-25</v>
+        <v>2020-12-17</v>
       </c>
       <c r="E9" s="5" t="str">
         <v>EZkN8vYZwjR</v>
@@ -681,7 +681,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G119"/>
+  <dimension ref="A1:G120"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -1778,16 +1778,16 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="str">
-        <v>AEFI - Vaccine 1 dose</v>
+        <v>AEFI - Fever &gt; or equal to 38 degrees C</v>
       </c>
       <c r="B48" s="4" t="str">
-        <v>Vaccine 1 dose</v>
+        <v>Fever &gt; or equal to 38 degrees C</v>
       </c>
       <c r="C48" s="4" t="str">
         <v/>
       </c>
       <c r="D48" s="4" t="str">
-        <v>Dose number of the vaccine for vaccinee e.g. 2nd dose of DTP or 5th dose of OPV etc.</v>
+        <v/>
       </c>
       <c r="E48" s="4" t="str">
         <v>default</v>
@@ -1796,21 +1796,21 @@
         <v>2020-11-18</v>
       </c>
       <c r="G48" s="4" t="str">
-        <v>LIyV4t7eCfZ</v>
+        <v>LbT5aALwcOj</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="5" t="str">
-        <v>AEFI - Batch/lot number (Vaccine 1)</v>
+        <v>AEFI - Vaccine 1 dose</v>
       </c>
       <c r="B49" s="5" t="str">
-        <v>Batch/lot number (Vaccine 1)</v>
+        <v>Vaccine 1 dose</v>
       </c>
       <c r="C49" s="5" t="str">
         <v/>
       </c>
       <c r="D49" s="5" t="str">
-        <v>Batch/Lot number of each of the vaccines mentioned above</v>
+        <v>Dose number of the vaccine for vaccinee e.g. 2nd dose of DTP or 5th dose of OPV etc.</v>
       </c>
       <c r="E49" s="5" t="str">
         <v>default</v>
@@ -1819,38 +1819,38 @@
         <v>2020-11-18</v>
       </c>
       <c r="G49" s="5" t="str">
-        <v>LNqkAlvGplL</v>
+        <v>LIyV4t7eCfZ</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="str">
-        <v>AEFI - Congenital anomaly</v>
+        <v>AEFI - Batch/lot number (Vaccine 1)</v>
       </c>
       <c r="B50" s="4" t="str">
-        <v>Congenital anomaly</v>
+        <v>Batch/lot number (Vaccine 1)</v>
       </c>
       <c r="C50" s="4" t="str">
         <v/>
       </c>
       <c r="D50" s="4" t="str">
-        <v/>
+        <v>Batch/Lot number of each of the vaccines mentioned above</v>
       </c>
       <c r="E50" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F50" s="4" t="str">
-        <v>2020-12-15</v>
+        <v>2020-11-18</v>
       </c>
       <c r="G50" s="4" t="str">
-        <v>lSBsxcQU0kO</v>
+        <v>LNqkAlvGplL</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="5" t="str">
-        <v>AEFI - Persistent or significant disability</v>
+        <v>AEFI - Congenital anomaly</v>
       </c>
       <c r="B51" s="5" t="str">
-        <v>Persistent or significant disability</v>
+        <v>Congenital anomaly</v>
       </c>
       <c r="C51" s="5" t="str">
         <v/>
@@ -1865,21 +1865,21 @@
         <v>2020-12-15</v>
       </c>
       <c r="G51" s="5" t="str">
-        <v>lsO8n8ZmLAB</v>
+        <v>lSBsxcQU0kO</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="4" t="str">
-        <v>AEFI - Vaccine 4 name</v>
+        <v>AEFI - Persistent or significant disability</v>
       </c>
       <c r="B52" s="4" t="str">
-        <v>Vaccine 4 name</v>
+        <v>Persistent or significant disability</v>
       </c>
       <c r="C52" s="4" t="str">
         <v/>
       </c>
       <c r="D52" s="4" t="str">
-        <v xml:space="preserve">The vaccine that is suspected to have caused the AEFI (provide brand name, if possible) </v>
+        <v/>
       </c>
       <c r="E52" s="4" t="str">
         <v>default</v>
@@ -1888,44 +1888,44 @@
         <v>2020-12-15</v>
       </c>
       <c r="G52" s="4" t="str">
-        <v>menOXwIFZh5</v>
+        <v>lsO8n8ZmLAB</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="5" t="str">
-        <v>AEFI - Expiry date (Diluent 3)</v>
+        <v>AEFI - Vaccine 4 name</v>
       </c>
       <c r="B53" s="5" t="str">
-        <v>Expiry date (Diluent 3)</v>
+        <v>Vaccine 4 name</v>
       </c>
       <c r="C53" s="5" t="str">
         <v/>
       </c>
       <c r="D53" s="5" t="str">
-        <v>Date of expiry of the diluent</v>
+        <v xml:space="preserve">The vaccine that is suspected to have caused the AEFI (provide brand name, if possible) </v>
       </c>
       <c r="E53" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F53" s="5" t="str">
-        <v>2020-11-18</v>
+        <v>2020-12-15</v>
       </c>
       <c r="G53" s="5" t="str">
-        <v>MGjnXmtmd7l</v>
+        <v>menOXwIFZh5</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="4" t="str">
-        <v>AEFI - Anaphylaxis</v>
+        <v>AEFI - Expiry date (Diluent 3)</v>
       </c>
       <c r="B54" s="4" t="str">
-        <v>Anaphylaxis</v>
+        <v>Expiry date (Diluent 3)</v>
       </c>
       <c r="C54" s="4" t="str">
         <v/>
       </c>
       <c r="D54" s="4" t="str">
-        <v/>
+        <v>Date of expiry of the diluent</v>
       </c>
       <c r="E54" s="4" t="str">
         <v>default</v>
@@ -1934,21 +1934,21 @@
         <v>2020-11-18</v>
       </c>
       <c r="G54" s="4" t="str">
-        <v>MkIgCrCTFyE</v>
+        <v>MGjnXmtmd7l</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="5" t="str">
-        <v>AEFI - Diluent batch/lot number 3</v>
+        <v>AEFI - Anaphylaxis</v>
       </c>
       <c r="B55" s="5" t="str">
-        <v>Diluent batch/lot number 3</v>
+        <v>Anaphylaxis</v>
       </c>
       <c r="C55" s="5" t="str">
         <v/>
       </c>
       <c r="D55" s="5" t="str">
-        <v>Batch/lot number of the diluent (if applicable)</v>
+        <v/>
       </c>
       <c r="E55" s="5" t="str">
         <v>default</v>
@@ -1957,15 +1957,15 @@
         <v>2020-11-18</v>
       </c>
       <c r="G55" s="5" t="str">
-        <v>MLP8fi1X7UX</v>
+        <v>MkIgCrCTFyE</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="4" t="str">
-        <v>AEFI - Diluent batch/lot number 4</v>
+        <v>AEFI - Diluent batch/lot number 3</v>
       </c>
       <c r="B56" s="4" t="str">
-        <v>Diluent batch/lot number 4</v>
+        <v>Diluent batch/lot number 3</v>
       </c>
       <c r="C56" s="4" t="str">
         <v/>
@@ -1980,21 +1980,21 @@
         <v>2020-11-18</v>
       </c>
       <c r="G56" s="4" t="str">
-        <v>MyWtDaOdlyD</v>
+        <v>MLP8fi1X7UX</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="5" t="str">
-        <v>AEFI - Diarrhoea</v>
+        <v>AEFI - Diluent batch/lot number 4</v>
       </c>
       <c r="B57" s="5" t="str">
-        <v>Diarrhoea</v>
+        <v>Diluent batch/lot number 4</v>
       </c>
       <c r="C57" s="5" t="str">
         <v/>
       </c>
       <c r="D57" s="5" t="str">
-        <v/>
+        <v>Batch/lot number of the diluent (if applicable)</v>
       </c>
       <c r="E57" s="5" t="str">
         <v>default</v>
@@ -2003,15 +2003,15 @@
         <v>2020-11-18</v>
       </c>
       <c r="G57" s="5" t="str">
-        <v>NAiZTRCHRWL</v>
+        <v>MyWtDaOdlyD</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="4" t="str">
-        <v>AEFI - Mild fever</v>
+        <v>AEFI - Diarrhoea</v>
       </c>
       <c r="B58" s="4" t="str">
-        <v>Mild fever</v>
+        <v>Diarrhoea</v>
       </c>
       <c r="C58" s="4" t="str">
         <v/>
@@ -2026,15 +2026,15 @@
         <v>2020-11-18</v>
       </c>
       <c r="G58" s="4" t="str">
-        <v>nKLO8ZNdR0B</v>
+        <v>NAiZTRCHRWL</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="5" t="str">
-        <v>AEFI - Other vaccine 3 name</v>
+        <v>AEFI - Mild fever</v>
       </c>
       <c r="B59" s="5" t="str">
-        <v>Other vaccine 3 name</v>
+        <v>Mild fever</v>
       </c>
       <c r="C59" s="5" t="str">
         <v/>
@@ -2049,21 +2049,21 @@
         <v>2020-11-18</v>
       </c>
       <c r="G59" s="5" t="str">
-        <v>NmQkARV9bm4</v>
+        <v>nKLO8ZNdR0B</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="4" t="str">
-        <v>AEFI - AEFI time</v>
+        <v>AEFI - Other vaccine 3 name</v>
       </c>
       <c r="B60" s="4" t="str">
-        <v>AEFI time</v>
+        <v>Other vaccine 3 name</v>
       </c>
       <c r="C60" s="4" t="str">
         <v/>
       </c>
       <c r="D60" s="4" t="str">
-        <v>Time the event was first noticed</v>
+        <v/>
       </c>
       <c r="E60" s="4" t="str">
         <v>default</v>
@@ -2072,21 +2072,21 @@
         <v>2020-11-18</v>
       </c>
       <c r="G60" s="4" t="str">
-        <v>NyCB1VAOfJd</v>
+        <v>NmQkARV9bm4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="5" t="str">
-        <v>AEFI - Fainting</v>
+        <v>AEFI - AEFI time</v>
       </c>
       <c r="B61" s="5" t="str">
-        <v>Fainting</v>
+        <v>AEFI time</v>
       </c>
       <c r="C61" s="5" t="str">
         <v/>
       </c>
       <c r="D61" s="5" t="str">
-        <v/>
+        <v>Time the event was first noticed</v>
       </c>
       <c r="E61" s="5" t="str">
         <v>default</v>
@@ -2095,21 +2095,21 @@
         <v>2020-11-18</v>
       </c>
       <c r="G61" s="5" t="str">
-        <v>OhHYABXmGGe</v>
+        <v>NyCB1VAOfJd</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="4" t="str">
-        <v>AEFI - Reconstitution date 1</v>
+        <v>AEFI - Fainting</v>
       </c>
       <c r="B62" s="4" t="str">
-        <v>Reconstitution date 1</v>
+        <v>Fainting</v>
       </c>
       <c r="C62" s="4" t="str">
         <v/>
       </c>
       <c r="D62" s="4" t="str">
-        <v>Date when the vaccine was reconstituted with the diluent</v>
+        <v/>
       </c>
       <c r="E62" s="4" t="str">
         <v>default</v>
@@ -2118,61 +2118,61 @@
         <v>2020-11-18</v>
       </c>
       <c r="G62" s="4" t="str">
-        <v>om7AsREDduc</v>
+        <v>OhHYABXmGGe</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="5" t="str">
-        <v>AEFI - Vaccine 3 name</v>
+        <v>AEFI - Reconstitution date 1</v>
       </c>
       <c r="B63" s="5" t="str">
-        <v>Vaccine 3 name</v>
+        <v>Reconstitution date 1</v>
       </c>
       <c r="C63" s="5" t="str">
         <v/>
       </c>
       <c r="D63" s="5" t="str">
-        <v xml:space="preserve">The vaccine that is suspected to have caused the AEFI (provide brand name, if possible) </v>
+        <v>Date when the vaccine was reconstituted with the diluent</v>
       </c>
       <c r="E63" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F63" s="5" t="str">
-        <v>2020-12-15</v>
+        <v>2020-11-18</v>
       </c>
       <c r="G63" s="5" t="str">
-        <v>OU5klvkk3SM</v>
+        <v>om7AsREDduc</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="4" t="str">
-        <v>AEFI - Fatigue</v>
+        <v>AEFI - Vaccine 3 name</v>
       </c>
       <c r="B64" s="4" t="str">
-        <v>Fatigue</v>
+        <v>Vaccine 3 name</v>
       </c>
       <c r="C64" s="4" t="str">
         <v/>
       </c>
       <c r="D64" s="4" t="str">
-        <v/>
+        <v xml:space="preserve">The vaccine that is suspected to have caused the AEFI (provide brand name, if possible) </v>
       </c>
       <c r="E64" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F64" s="4" t="str">
-        <v>2020-11-18</v>
+        <v>2020-12-15</v>
       </c>
       <c r="G64" s="4" t="str">
-        <v>owRcSysyioE</v>
+        <v>OU5klvkk3SM</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="5" t="str">
-        <v>AEFI - Injection site soreness</v>
+        <v>AEFI - Fatigue</v>
       </c>
       <c r="B65" s="5" t="str">
-        <v>Injection site soreness</v>
+        <v>Fatigue</v>
       </c>
       <c r="C65" s="5" t="str">
         <v/>
@@ -2187,15 +2187,15 @@
         <v>2020-11-18</v>
       </c>
       <c r="G65" s="5" t="str">
-        <v>P4oSprWWqrn</v>
+        <v>owRcSysyioE</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="4" t="str">
-        <v>AEFI - Other vaccine 4 name</v>
+        <v>AEFI - Injection site soreness</v>
       </c>
       <c r="B66" s="4" t="str">
-        <v>Other vaccine 4 name</v>
+        <v>Injection site soreness</v>
       </c>
       <c r="C66" s="4" t="str">
         <v/>
@@ -2210,15 +2210,15 @@
         <v>2020-11-18</v>
       </c>
       <c r="G66" s="4" t="str">
-        <v>PDDaOMSiSDG</v>
+        <v>P4oSprWWqrn</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="5" t="str">
-        <v>AEFI - Encephalopathy</v>
+        <v>AEFI - Other vaccine 4 name</v>
       </c>
       <c r="B67" s="5" t="str">
-        <v>Encephalopathy</v>
+        <v>Other vaccine 4 name</v>
       </c>
       <c r="C67" s="5" t="str">
         <v/>
@@ -2233,21 +2233,21 @@
         <v>2020-11-18</v>
       </c>
       <c r="G67" s="5" t="str">
-        <v>pdpAEuUS1W9</v>
+        <v>PDDaOMSiSDG</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="4" t="str">
-        <v>AEFI - Diluent 3</v>
+        <v>AEFI - Encephalopathy</v>
       </c>
       <c r="B68" s="4" t="str">
-        <v>Diluent 3</v>
+        <v>Encephalopathy</v>
       </c>
       <c r="C68" s="4" t="str">
         <v/>
       </c>
       <c r="D68" s="4" t="str">
-        <v>Diluent name</v>
+        <v/>
       </c>
       <c r="E68" s="4" t="str">
         <v>default</v>
@@ -2256,38 +2256,38 @@
         <v>2020-11-18</v>
       </c>
       <c r="G68" s="4" t="str">
-        <v>pLu0luPWikb</v>
+        <v>pdpAEuUS1W9</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="5" t="str">
-        <v>AEFI - Vaccine 4 brand</v>
+        <v>AEFI - Diluent 3</v>
       </c>
       <c r="B69" s="5" t="str">
-        <v>Vaccine 4 brand</v>
+        <v>Diluent 3</v>
       </c>
       <c r="C69" s="5" t="str">
         <v/>
       </c>
       <c r="D69" s="5" t="str">
-        <v/>
+        <v>Diluent name</v>
       </c>
       <c r="E69" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F69" s="5" t="str">
-        <v>2020-11-25</v>
+        <v>2020-11-18</v>
       </c>
       <c r="G69" s="5" t="str">
-        <v>Ptms0lmt4QX</v>
+        <v>pLu0luPWikb</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="4" t="str">
-        <v>AEFI - Irritability</v>
+        <v>AEFI - Vaccine 4 brand</v>
       </c>
       <c r="B70" s="4" t="str">
-        <v>Irritability</v>
+        <v>Vaccine 4 brand</v>
       </c>
       <c r="C70" s="4" t="str">
         <v/>
@@ -2299,18 +2299,18 @@
         <v>default</v>
       </c>
       <c r="F70" s="4" t="str">
-        <v>2020-11-18</v>
+        <v>2020-11-25</v>
       </c>
       <c r="G70" s="4" t="str">
-        <v>PWOzcN7UCfW</v>
+        <v>Ptms0lmt4QX</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="5" t="str">
-        <v>AEFI - Muscle pain</v>
+        <v>AEFI - Irritability</v>
       </c>
       <c r="B71" s="5" t="str">
-        <v>Muscle pain</v>
+        <v>Irritability</v>
       </c>
       <c r="C71" s="5" t="str">
         <v/>
@@ -2325,68 +2325,68 @@
         <v>2020-11-18</v>
       </c>
       <c r="G71" s="5" t="str">
+        <v>PWOzcN7UCfW</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="4" t="str">
+        <v>AEFI - Muscle pain</v>
+      </c>
+      <c r="B72" s="4" t="str">
+        <v>Muscle pain</v>
+      </c>
+      <c r="C72" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D72" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E72" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F72" s="4" t="str">
+        <v>2020-11-18</v>
+      </c>
+      <c r="G72" s="4" t="str">
         <v>pzOF4lGIyTU</v>
       </c>
     </row>
-    <row r="72" xml:space="preserve">
-      <c r="A72" s="4" t="str">
+    <row r="73" xml:space="preserve">
+      <c r="A73" s="5" t="str">
         <v>AEFI - Reporter's address</v>
       </c>
-      <c r="B72" s="4" t="str">
+      <c r="B73" s="5" t="str">
         <v>AEFI - Reporter's address</v>
       </c>
-      <c r="C72" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D72" s="4" t="str" xml:space="preserve">
+      <c r="C73" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D73" s="5" t="str" xml:space="preserve">
         <v xml:space="preserve">Reporter's full address
 </v>
       </c>
-      <c r="E72" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F72" s="4" t="str">
-        <v>2020-12-01</v>
-      </c>
-      <c r="G72" s="4" t="str">
-        <v>Q20pEixZxCs</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="5" t="str">
-        <v>AEFI - Loss of apetite</v>
-      </c>
-      <c r="B73" s="5" t="str">
-        <v>Loss of apetite</v>
-      </c>
-      <c r="C73" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D73" s="5" t="str">
-        <v/>
-      </c>
       <c r="E73" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F73" s="5" t="str">
-        <v>2020-11-18</v>
+        <v>2020-12-01</v>
       </c>
       <c r="G73" s="5" t="str">
-        <v>QFMRugi3fm6</v>
+        <v>Q20pEixZxCs</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="4" t="str">
-        <v>AEFI - Expiry date (Diluent 4)</v>
+        <v>AEFI - Loss of apetite</v>
       </c>
       <c r="B74" s="4" t="str">
-        <v>Expiry date (Diluent 4)</v>
+        <v>Loss of apetite</v>
       </c>
       <c r="C74" s="4" t="str">
         <v/>
       </c>
       <c r="D74" s="4" t="str">
-        <v>Date of expiry of the diluent</v>
+        <v/>
       </c>
       <c r="E74" s="4" t="str">
         <v>default</v>
@@ -2395,21 +2395,21 @@
         <v>2020-11-18</v>
       </c>
       <c r="G74" s="4" t="str">
-        <v>qhDonTAIjl0</v>
+        <v>QFMRugi3fm6</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="5" t="str">
-        <v>AEFI - Drowsiness</v>
+        <v>AEFI - Expiry date (Diluent 4)</v>
       </c>
       <c r="B75" s="5" t="str">
-        <v>Drowsiness</v>
+        <v>Expiry date (Diluent 4)</v>
       </c>
       <c r="C75" s="5" t="str">
         <v/>
       </c>
       <c r="D75" s="5" t="str">
-        <v/>
+        <v>Date of expiry of the diluent</v>
       </c>
       <c r="E75" s="5" t="str">
         <v>default</v>
@@ -2418,21 +2418,21 @@
         <v>2020-11-18</v>
       </c>
       <c r="G75" s="5" t="str">
-        <v>rjjRNU5yDhT</v>
+        <v>qhDonTAIjl0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="4" t="str">
-        <v>AEFI - Expiry date (Vaccine 2)</v>
+        <v>AEFI - Drowsiness</v>
       </c>
       <c r="B76" s="4" t="str">
-        <v>Expiry date (Vaccine 2)</v>
+        <v>Drowsiness</v>
       </c>
       <c r="C76" s="4" t="str">
         <v/>
       </c>
       <c r="D76" s="4" t="str">
-        <v>The date of expiry for each vaccine</v>
+        <v/>
       </c>
       <c r="E76" s="4" t="str">
         <v>default</v>
@@ -2441,67 +2441,67 @@
         <v>2020-11-18</v>
       </c>
       <c r="G76" s="4" t="str">
-        <v>rVUo2PBgwhr</v>
+        <v>rjjRNU5yDhT</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="5" t="str">
-        <v>AEFI - Fever</v>
+        <v>AEFI - Expiry date (Vaccine 2)</v>
       </c>
       <c r="B77" s="5" t="str">
-        <v>Fever</v>
+        <v>Expiry date (Vaccine 2)</v>
       </c>
       <c r="C77" s="5" t="str">
         <v/>
       </c>
       <c r="D77" s="5" t="str">
-        <v>Does the case have fever or not</v>
+        <v>The date of expiry for each vaccine</v>
       </c>
       <c r="E77" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F77" s="5" t="str">
-        <v>2020-12-15</v>
+        <v>2020-11-18</v>
       </c>
       <c r="G77" s="5" t="str">
-        <v>rzhHSqK3lQq</v>
+        <v>rVUo2PBgwhr</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="4" t="str">
-        <v>AEFI - Vaccination 4 time</v>
+        <v>AEFI - Fever</v>
       </c>
       <c r="B78" s="4" t="str">
-        <v>Vaccination 4 time</v>
+        <v>Fever</v>
       </c>
       <c r="C78" s="4" t="str">
         <v/>
       </c>
       <c r="D78" s="4" t="str">
-        <v>Time when the vaccine was administered-try to be as accurate as possible</v>
+        <v>Does the case have fever or not</v>
       </c>
       <c r="E78" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F78" s="4" t="str">
-        <v>2020-11-18</v>
+        <v>2020-12-15</v>
       </c>
       <c r="G78" s="4" t="str">
-        <v>S1PRFSk8Y9v</v>
+        <v>rzhHSqK3lQq</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="5" t="str">
-        <v>AEFI - Sore throat</v>
+        <v>AEFI - Vaccination 4 time</v>
       </c>
       <c r="B79" s="5" t="str">
-        <v>Sore throat</v>
+        <v>Vaccination 4 time</v>
       </c>
       <c r="C79" s="5" t="str">
         <v/>
       </c>
       <c r="D79" s="5" t="str">
-        <v/>
+        <v>Time when the vaccine was administered-try to be as accurate as possible</v>
       </c>
       <c r="E79" s="5" t="str">
         <v>default</v>
@@ -2510,15 +2510,15 @@
         <v>2020-11-18</v>
       </c>
       <c r="G79" s="5" t="str">
-        <v>seXW1hERwOo</v>
+        <v>S1PRFSk8Y9v</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="4" t="str">
-        <v>AEFI - Poor breast feeding</v>
+        <v>AEFI - Sore throat</v>
       </c>
       <c r="B80" s="4" t="str">
-        <v>Poor breast feeding</v>
+        <v>Sore throat</v>
       </c>
       <c r="C80" s="4" t="str">
         <v/>
@@ -2533,15 +2533,15 @@
         <v>2020-11-18</v>
       </c>
       <c r="G80" s="4" t="str">
-        <v>sX1SvRadOmn</v>
+        <v>seXW1hERwOo</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="5" t="str">
-        <v>AEFI - Abdominal pain</v>
+        <v>AEFI - Poor breast feeding</v>
       </c>
       <c r="B81" s="5" t="str">
-        <v>Abdominal pain</v>
+        <v>Poor breast feeding</v>
       </c>
       <c r="C81" s="5" t="str">
         <v/>
@@ -2556,21 +2556,21 @@
         <v>2020-11-18</v>
       </c>
       <c r="G81" s="5" t="str">
-        <v>T6tsxbKzikz</v>
+        <v>sX1SvRadOmn</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="4" t="str">
-        <v>AEFI - Position/Department</v>
+        <v>AEFI - Abdominal pain</v>
       </c>
       <c r="B82" s="4" t="str">
-        <v>Position/Department_AEFI</v>
+        <v>Abdominal pain</v>
       </c>
       <c r="C82" s="4" t="str">
         <v/>
       </c>
       <c r="D82" s="4" t="str">
-        <v>The reporter's designation and his/her section of work</v>
+        <v/>
       </c>
       <c r="E82" s="4" t="str">
         <v>default</v>
@@ -2579,21 +2579,21 @@
         <v>2020-11-18</v>
       </c>
       <c r="G82" s="4" t="str">
-        <v>Tgi4xP5DCzr</v>
+        <v>T6tsxbKzikz</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="5" t="str">
-        <v>AEFI - Chills</v>
+        <v>AEFI - Position/Department</v>
       </c>
       <c r="B83" s="5" t="str">
-        <v>Chills</v>
+        <v>Position/Department_AEFI</v>
       </c>
       <c r="C83" s="5" t="str">
         <v/>
       </c>
       <c r="D83" s="5" t="str">
-        <v/>
+        <v>The reporter's designation and his/her section of work</v>
       </c>
       <c r="E83" s="5" t="str">
         <v>default</v>
@@ -2602,15 +2602,15 @@
         <v>2020-11-18</v>
       </c>
       <c r="G83" s="5" t="str">
-        <v>TPSvWhUfib3</v>
+        <v>Tgi4xP5DCzr</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="4" t="str">
-        <v>AEFI - Sepsis</v>
+        <v>AEFI - Chills</v>
       </c>
       <c r="B84" s="4" t="str">
-        <v>Sepsis</v>
+        <v>Chills</v>
       </c>
       <c r="C84" s="4" t="str">
         <v/>
@@ -2625,15 +2625,15 @@
         <v>2020-11-18</v>
       </c>
       <c r="G84" s="4" t="str">
-        <v>tUmgO1Ugv6U</v>
+        <v>TPSvWhUfib3</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="5" t="str">
-        <v>AEFI - Other (Adverse event)</v>
+        <v>AEFI - Sepsis</v>
       </c>
       <c r="B85" s="5" t="str">
-        <v>Other (Adverse event)</v>
+        <v>Sepsis</v>
       </c>
       <c r="C85" s="5" t="str">
         <v/>
@@ -2648,21 +2648,21 @@
         <v>2020-11-18</v>
       </c>
       <c r="G85" s="5" t="str">
-        <v>tWcNgbkOETR</v>
+        <v>tUmgO1Ugv6U</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="4" t="str">
-        <v>AEFI - Diluent batch/lot number 2</v>
+        <v>AEFI - Other (Adverse event)</v>
       </c>
       <c r="B86" s="4" t="str">
-        <v>Diluent batch/lot number 2</v>
+        <v>Other (Adverse event)</v>
       </c>
       <c r="C86" s="4" t="str">
         <v/>
       </c>
       <c r="D86" s="4" t="str">
-        <v>Batch/lot number of the diluent (if applicable)</v>
+        <v/>
       </c>
       <c r="E86" s="4" t="str">
         <v>default</v>
@@ -2671,21 +2671,21 @@
         <v>2020-11-18</v>
       </c>
       <c r="G86" s="4" t="str">
-        <v>ufWU3WStZgG</v>
+        <v>tWcNgbkOETR</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="5" t="str">
-        <v>AEFI - E-mail address</v>
+        <v>AEFI - Diluent batch/lot number 2</v>
       </c>
       <c r="B87" s="5" t="str">
-        <v>E-mail address</v>
+        <v>Diluent batch/lot number 2</v>
       </c>
       <c r="C87" s="5" t="str">
         <v/>
       </c>
       <c r="D87" s="5" t="str">
-        <v>Reporter's e-mail address</v>
+        <v>Batch/lot number of the diluent (if applicable)</v>
       </c>
       <c r="E87" s="5" t="str">
         <v>default</v>
@@ -2694,21 +2694,21 @@
         <v>2020-11-18</v>
       </c>
       <c r="G87" s="5" t="str">
-        <v>UmXSiK5Jlr4</v>
+        <v>ufWU3WStZgG</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="4" t="str">
-        <v>AEFI - Severe local reaction</v>
+        <v>AEFI - E-mail address</v>
       </c>
       <c r="B88" s="4" t="str">
-        <v>Severe local reaction</v>
+        <v>E-mail address</v>
       </c>
       <c r="C88" s="4" t="str">
         <v/>
       </c>
       <c r="D88" s="4" t="str">
-        <v/>
+        <v>Reporter's e-mail address</v>
       </c>
       <c r="E88" s="4" t="str">
         <v>default</v>
@@ -2717,67 +2717,67 @@
         <v>2020-11-18</v>
       </c>
       <c r="G88" s="4" t="str">
-        <v>UNmEidE6M9K</v>
+        <v>UmXSiK5Jlr4</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="5" t="str">
-        <v>AEFI - Vaccine 1 name</v>
+        <v>AEFI - Severe local reaction</v>
       </c>
       <c r="B89" s="5" t="str">
-        <v>Vaccine 1 name</v>
+        <v>Severe local reaction</v>
       </c>
       <c r="C89" s="5" t="str">
         <v/>
       </c>
       <c r="D89" s="5" t="str">
-        <v xml:space="preserve">The vaccine that is suspected to have caused the AEFI (provide brand name, if possible) </v>
+        <v/>
       </c>
       <c r="E89" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F89" s="5" t="str">
-        <v>2020-12-15</v>
+        <v>2020-11-18</v>
       </c>
       <c r="G89" s="5" t="str">
-        <v>uSVcZzSM3zg</v>
+        <v>UNmEidE6M9K</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="4" t="str">
-        <v>AEFI - Reporter of AEFI case</v>
+        <v>AEFI - Vaccine 1 name</v>
       </c>
       <c r="B90" s="4" t="str">
-        <v>Reporter of AEFI case</v>
+        <v>Vaccine 1 name</v>
       </c>
       <c r="C90" s="4" t="str">
         <v/>
       </c>
       <c r="D90" s="4" t="str">
-        <v>Name of person who has reported this AEFI to the healthcare system and also completed this form</v>
+        <v xml:space="preserve">The vaccine that is suspected to have caused the AEFI (provide brand name, if possible) </v>
       </c>
       <c r="E90" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F90" s="4" t="str">
-        <v>2020-11-18</v>
+        <v>2020-12-15</v>
       </c>
       <c r="G90" s="4" t="str">
-        <v>uZ9c4fKXuNS</v>
+        <v>uSVcZzSM3zg</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="5" t="str">
-        <v>AEFI - Reconstitution date 4</v>
+        <v>AEFI - Reporter of AEFI case</v>
       </c>
       <c r="B91" s="5" t="str">
-        <v>Reconstitution date 4</v>
+        <v>Reporter of AEFI case</v>
       </c>
       <c r="C91" s="5" t="str">
         <v/>
       </c>
       <c r="D91" s="5" t="str">
-        <v>Date when the vaccine was reconstituted with the diluent</v>
+        <v>Name of person who has reported this AEFI to the healthcare system and also completed this form</v>
       </c>
       <c r="E91" s="5" t="str">
         <v>default</v>
@@ -2786,21 +2786,21 @@
         <v>2020-11-18</v>
       </c>
       <c r="G91" s="5" t="str">
-        <v>va0Smpy0LUn</v>
+        <v>uZ9c4fKXuNS</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="4" t="str">
-        <v>AEFI - Joint pain</v>
+        <v>AEFI - Reconstitution date 4</v>
       </c>
       <c r="B92" s="4" t="str">
-        <v>Joint pain</v>
+        <v>Reconstitution date 4</v>
       </c>
       <c r="C92" s="4" t="str">
         <v/>
       </c>
       <c r="D92" s="4" t="str">
-        <v/>
+        <v>Date when the vaccine was reconstituted with the diluent</v>
       </c>
       <c r="E92" s="4" t="str">
         <v>default</v>
@@ -2809,21 +2809,21 @@
         <v>2020-11-18</v>
       </c>
       <c r="G92" s="4" t="str">
-        <v>vCfZD893IVe</v>
+        <v>va0Smpy0LUn</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="5" t="str">
-        <v>AEFI - Expiry date (Vaccine 1)</v>
+        <v>AEFI - Joint pain</v>
       </c>
       <c r="B93" s="5" t="str">
-        <v>Expiry date</v>
+        <v>Joint pain</v>
       </c>
       <c r="C93" s="5" t="str">
         <v/>
       </c>
       <c r="D93" s="5" t="str">
-        <v>The date of expiry for each vaccine</v>
+        <v/>
       </c>
       <c r="E93" s="5" t="str">
         <v>default</v>
@@ -2832,21 +2832,21 @@
         <v>2020-11-18</v>
       </c>
       <c r="G93" s="5" t="str">
-        <v>VFrc8SNFYm7</v>
+        <v>vCfZD893IVe</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="4" t="str">
-        <v>AEFI - AEFI start date</v>
+        <v>AEFI - Expiry date (Vaccine 1)</v>
       </c>
       <c r="B94" s="4" t="str">
-        <v>AEFI start date</v>
+        <v>Expiry date</v>
       </c>
       <c r="C94" s="4" t="str">
         <v/>
       </c>
       <c r="D94" s="4" t="str">
-        <v/>
+        <v>The date of expiry for each vaccine</v>
       </c>
       <c r="E94" s="4" t="str">
         <v>default</v>
@@ -2855,21 +2855,21 @@
         <v>2020-11-18</v>
       </c>
       <c r="G94" s="4" t="str">
-        <v>vNGUuAZA2C2</v>
+        <v>VFrc8SNFYm7</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="5" t="str">
-        <v>AEFI - Vaccination 3 time</v>
+        <v>AEFI - AEFI start date</v>
       </c>
       <c r="B95" s="5" t="str">
-        <v>Vaccination 3 time</v>
+        <v>AEFI start date</v>
       </c>
       <c r="C95" s="5" t="str">
         <v/>
       </c>
       <c r="D95" s="5" t="str">
-        <v>Time when the vaccine was administered-try to be as accurate as possible</v>
+        <v/>
       </c>
       <c r="E95" s="5" t="str">
         <v>default</v>
@@ -2878,61 +2878,61 @@
         <v>2020-11-18</v>
       </c>
       <c r="G95" s="5" t="str">
-        <v>VQKdZ1KeD7u</v>
+        <v>vNGUuAZA2C2</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="4" t="str">
-        <v>AEFI - Vaccination 2 date</v>
+        <v>AEFI - Vaccination 3 time</v>
       </c>
       <c r="B96" s="4" t="str">
-        <v>Vaccination 2 date</v>
+        <v>Vaccination 3 time</v>
       </c>
       <c r="C96" s="4" t="str">
         <v/>
       </c>
       <c r="D96" s="4" t="str">
-        <v>Date when the vaccine was administered</v>
+        <v>Time when the vaccine was administered-try to be as accurate as possible</v>
       </c>
       <c r="E96" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F96" s="4" t="str">
-        <v>2020-12-15</v>
+        <v>2020-11-18</v>
       </c>
       <c r="G96" s="4" t="str">
-        <v>VrzEutEnzSJ</v>
+        <v>VQKdZ1KeD7u</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="5" t="str">
-        <v>AEFI - Other (Severe event)</v>
+        <v>AEFI - Vaccination 2 date</v>
       </c>
       <c r="B97" s="5" t="str">
-        <v>Other (Severe event)</v>
+        <v>Vaccination 2 date</v>
       </c>
       <c r="C97" s="5" t="str">
         <v/>
       </c>
       <c r="D97" s="5" t="str">
-        <v/>
+        <v>Date when the vaccine was administered</v>
       </c>
       <c r="E97" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F97" s="5" t="str">
-        <v>2020-11-18</v>
+        <v>2020-12-15</v>
       </c>
       <c r="G97" s="5" t="str">
-        <v>VXdRoWQOBxG</v>
+        <v>VrzEutEnzSJ</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="4" t="str">
-        <v>AEFI - Abscess</v>
+        <v>AEFI - Other (Severe event)</v>
       </c>
       <c r="B98" s="4" t="str">
-        <v>Abscess</v>
+        <v>Other (Severe event)</v>
       </c>
       <c r="C98" s="4" t="str">
         <v/>
@@ -2947,15 +2947,15 @@
         <v>2020-11-18</v>
       </c>
       <c r="G98" s="4" t="str">
-        <v>wce39JmsjIK</v>
+        <v>VXdRoWQOBxG</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="5" t="str">
-        <v>AEFI - Seizures</v>
+        <v>AEFI - Abscess</v>
       </c>
       <c r="B99" s="5" t="str">
-        <v>Seizures</v>
+        <v>Abscess</v>
       </c>
       <c r="C99" s="5" t="str">
         <v/>
@@ -2970,15 +2970,15 @@
         <v>2020-11-18</v>
       </c>
       <c r="G99" s="5" t="str">
-        <v>wCGZpudXuYx</v>
+        <v>wce39JmsjIK</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="4" t="str">
-        <v>AEFI - Vaccine 3 brand</v>
+        <v>AEFI - Seizures</v>
       </c>
       <c r="B100" s="4" t="str">
-        <v>Vaccine 3 brand</v>
+        <v>Seizures</v>
       </c>
       <c r="C100" s="4" t="str">
         <v/>
@@ -2990,18 +2990,18 @@
         <v>default</v>
       </c>
       <c r="F100" s="4" t="str">
-        <v>2020-11-25</v>
+        <v>2020-11-18</v>
       </c>
       <c r="G100" s="4" t="str">
-        <v>wdZrkUvnuyr</v>
+        <v>wCGZpudXuYx</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="5" t="str">
-        <v>AEFI - Severe local reaction &gt; 3 days</v>
+        <v>AEFI - Vaccine 3 brand</v>
       </c>
       <c r="B101" s="5" t="str">
-        <v>Severe local reaction &gt; 3 days</v>
+        <v>Vaccine 3 brand</v>
       </c>
       <c r="C101" s="5" t="str">
         <v/>
@@ -3013,24 +3013,24 @@
         <v>default</v>
       </c>
       <c r="F101" s="5" t="str">
-        <v>2020-11-18</v>
+        <v>2020-11-25</v>
       </c>
       <c r="G101" s="5" t="str">
-        <v>We87rvcvd8J</v>
+        <v>wdZrkUvnuyr</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="4" t="str">
-        <v>AEFI - Vaccine 3 dose</v>
+        <v>AEFI - Severe local reaction &gt; 3 days</v>
       </c>
       <c r="B102" s="4" t="str">
-        <v>Vaccine 3 dose</v>
+        <v>Severe local reaction &gt; 3 days</v>
       </c>
       <c r="C102" s="4" t="str">
         <v/>
       </c>
       <c r="D102" s="4" t="str">
-        <v>Dose number of the vaccine for vaccinee e.g. 2nd dose of DTP or 5th dose of OPV etc.</v>
+        <v/>
       </c>
       <c r="E102" s="4" t="str">
         <v>default</v>
@@ -3039,21 +3039,21 @@
         <v>2020-11-18</v>
       </c>
       <c r="G102" s="4" t="str">
-        <v>WlE0K4xCc14</v>
+        <v>We87rvcvd8J</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="5" t="str">
-        <v>AEFI - Diluent 2</v>
+        <v>AEFI - Vaccine 3 dose</v>
       </c>
       <c r="B103" s="5" t="str">
-        <v>Diluent 2</v>
+        <v>Vaccine 3 dose</v>
       </c>
       <c r="C103" s="5" t="str">
         <v/>
       </c>
       <c r="D103" s="5" t="str">
-        <v>Diluent name</v>
+        <v>Dose number of the vaccine for vaccinee e.g. 2nd dose of DTP or 5th dose of OPV etc.</v>
       </c>
       <c r="E103" s="5" t="str">
         <v>default</v>
@@ -3062,21 +3062,21 @@
         <v>2020-11-18</v>
       </c>
       <c r="G103" s="5" t="str">
-        <v>WN8844HG0zi</v>
+        <v>WlE0K4xCc14</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="4" t="str">
-        <v>AEFI - Nasal congestion</v>
+        <v>AEFI - Diluent 2</v>
       </c>
       <c r="B104" s="4" t="str">
-        <v>Nasal congestion</v>
+        <v>Diluent 2</v>
       </c>
       <c r="C104" s="4" t="str">
         <v/>
       </c>
       <c r="D104" s="4" t="str">
-        <v/>
+        <v>Diluent name</v>
       </c>
       <c r="E104" s="4" t="str">
         <v>default</v>
@@ -3085,15 +3085,15 @@
         <v>2020-11-18</v>
       </c>
       <c r="G104" s="4" t="str">
-        <v>wWDenTQ5xBR</v>
+        <v>WN8844HG0zi</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="5" t="str">
-        <v>AEFI - Skin rash</v>
+        <v>AEFI - Nasal congestion</v>
       </c>
       <c r="B105" s="5" t="str">
-        <v>Skin rash</v>
+        <v>Nasal congestion</v>
       </c>
       <c r="C105" s="5" t="str">
         <v/>
@@ -3108,21 +3108,21 @@
         <v>2020-11-18</v>
       </c>
       <c r="G105" s="5" t="str">
-        <v>xgqzqv0p2Us</v>
+        <v>wWDenTQ5xBR</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="4" t="str">
-        <v>AEFI - Diluent 1</v>
+        <v>AEFI - Skin rash</v>
       </c>
       <c r="B106" s="4" t="str">
-        <v>Diluent 1</v>
+        <v>Skin rash</v>
       </c>
       <c r="C106" s="4" t="str">
         <v/>
       </c>
       <c r="D106" s="4" t="str">
-        <v>Diluent name</v>
+        <v/>
       </c>
       <c r="E106" s="4" t="str">
         <v>default</v>
@@ -3131,21 +3131,21 @@
         <v>2020-11-18</v>
       </c>
       <c r="G106" s="4" t="str">
-        <v>xk9QvZPMVQF</v>
+        <v>xgqzqv0p2Us</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="5" t="str">
-        <v>AEFI - Dizziness</v>
+        <v>AEFI - Diluent 1</v>
       </c>
       <c r="B107" s="5" t="str">
-        <v>Dizziness</v>
+        <v>Diluent 1</v>
       </c>
       <c r="C107" s="5" t="str">
         <v/>
       </c>
       <c r="D107" s="5" t="str">
-        <v/>
+        <v>Diluent name</v>
       </c>
       <c r="E107" s="5" t="str">
         <v>default</v>
@@ -3154,21 +3154,21 @@
         <v>2020-11-18</v>
       </c>
       <c r="G107" s="5" t="str">
-        <v>XluNAFG1wj6</v>
+        <v>xk9QvZPMVQF</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="4" t="str">
-        <v>AEFI - Reconstitution date 2</v>
+        <v>AEFI - Dizziness</v>
       </c>
       <c r="B108" s="4" t="str">
-        <v>Reconstitution date 2</v>
+        <v>Dizziness</v>
       </c>
       <c r="C108" s="4" t="str">
         <v/>
       </c>
       <c r="D108" s="4" t="str">
-        <v>Date when the vaccine was reconstituted with the diluent</v>
+        <v/>
       </c>
       <c r="E108" s="4" t="str">
         <v>default</v>
@@ -3177,21 +3177,21 @@
         <v>2020-11-18</v>
       </c>
       <c r="G108" s="4" t="str">
-        <v>xXjnT9sjt4F</v>
+        <v>XluNAFG1wj6</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="5" t="str">
-        <v>AEFI - Batch/lot number (Vaccine 3)</v>
+        <v>AEFI - Reconstitution date 2</v>
       </c>
       <c r="B109" s="5" t="str">
-        <v>Batch/lot number (Vaccine 3)</v>
+        <v>Reconstitution date 2</v>
       </c>
       <c r="C109" s="5" t="str">
         <v/>
       </c>
       <c r="D109" s="5" t="str">
-        <v>Batch/Lot number of each of the vaccines mentioned above</v>
+        <v>Date when the vaccine was reconstituted with the diluent</v>
       </c>
       <c r="E109" s="5" t="str">
         <v>default</v>
@@ -3200,21 +3200,21 @@
         <v>2020-11-18</v>
       </c>
       <c r="G109" s="5" t="str">
-        <v>YBnFoNouH6f</v>
+        <v>xXjnT9sjt4F</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="4" t="str">
-        <v>AEFI - Other vaccine 1 name</v>
+        <v>AEFI - Batch/lot number (Vaccine 3)</v>
       </c>
       <c r="B110" s="4" t="str">
-        <v>Other vaccine 1 name</v>
+        <v>Batch/lot number (Vaccine 3)</v>
       </c>
       <c r="C110" s="4" t="str">
         <v/>
       </c>
       <c r="D110" s="4" t="str">
-        <v/>
+        <v>Batch/Lot number of each of the vaccines mentioned above</v>
       </c>
       <c r="E110" s="4" t="str">
         <v>default</v>
@@ -3223,21 +3223,21 @@
         <v>2020-11-18</v>
       </c>
       <c r="G110" s="4" t="str">
-        <v>yr2dELskXm4</v>
+        <v>YBnFoNouH6f</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="5" t="str">
-        <v>AEFI - AEFI outcome</v>
+        <v>AEFI - Other vaccine 1 name</v>
       </c>
       <c r="B111" s="5" t="str">
-        <v>AEFI outcome</v>
+        <v>Other vaccine 1 name</v>
       </c>
       <c r="C111" s="5" t="str">
         <v/>
       </c>
       <c r="D111" s="5" t="str">
-        <v>Outcome of the reaction(s). Indicate status of the patient at the time of reporting: Recovering, Recovered, Recovered with sequelae, Not Recovered, Unknown or Died</v>
+        <v/>
       </c>
       <c r="E111" s="5" t="str">
         <v>default</v>
@@ -3246,21 +3246,21 @@
         <v>2020-11-18</v>
       </c>
       <c r="G111" s="5" t="str">
-        <v>yRrSDiR5v1M</v>
+        <v>yr2dELskXm4</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="4" t="str">
-        <v>AEFI - Investigation date</v>
+        <v>AEFI - AEFI outcome</v>
       </c>
       <c r="B112" s="4" t="str">
-        <v>Investigation date</v>
+        <v>AEFI outcome</v>
       </c>
       <c r="C112" s="4" t="str">
         <v/>
       </c>
       <c r="D112" s="4" t="str">
-        <v>Date when detailed investigation (including field investigation) was done</v>
+        <v>Outcome of the reaction(s). Indicate status of the patient at the time of reporting: Recovering, Recovered, Recovered with sequelae, Not Recovered, Unknown or Died</v>
       </c>
       <c r="E112" s="4" t="str">
         <v>default</v>
@@ -3269,38 +3269,38 @@
         <v>2020-11-18</v>
       </c>
       <c r="G112" s="4" t="str">
-        <v>yUBUbMo3kGv</v>
+        <v>yRrSDiR5v1M</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="5" t="str">
-        <v>Autopsy requested</v>
+        <v>AEFI - Investigation date</v>
       </c>
       <c r="B113" s="5" t="str">
-        <v>Autopsy requested</v>
+        <v>Investigation date</v>
       </c>
       <c r="C113" s="5" t="str">
         <v/>
       </c>
       <c r="D113" s="5" t="str">
-        <v/>
+        <v>Date when detailed investigation (including field investigation) was done</v>
       </c>
       <c r="E113" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F113" s="5" t="str">
-        <v>2020-03-18</v>
+        <v>2020-11-18</v>
       </c>
       <c r="G113" s="5" t="str">
-        <v>YUcJrLWmGyv</v>
+        <v>yUBUbMo3kGv</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="4" t="str">
-        <v>AEFI - Cough</v>
+        <v>AEFI - Autopsy conducted</v>
       </c>
       <c r="B114" s="4" t="str">
-        <v>Cough</v>
+        <v>AEFI - Autopsy conducted</v>
       </c>
       <c r="C114" s="4" t="str">
         <v/>
@@ -3312,18 +3312,18 @@
         <v>default</v>
       </c>
       <c r="F114" s="4" t="str">
-        <v>2020-11-18</v>
+        <v>2020-12-17</v>
       </c>
       <c r="G114" s="4" t="str">
-        <v>ZdFB8xUhOUM</v>
+        <v>YUcJrLWmGyv</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="5" t="str">
-        <v>AEFI - Date of death</v>
+        <v>AEFI - Cough</v>
       </c>
       <c r="B115" s="5" t="str">
-        <v>Date of death AEFI</v>
+        <v>Cough</v>
       </c>
       <c r="C115" s="5" t="str">
         <v/>
@@ -3338,21 +3338,21 @@
         <v>2020-11-18</v>
       </c>
       <c r="G115" s="5" t="str">
-        <v>Ze34uXcBUxi</v>
+        <v>ZdFB8xUhOUM</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="4" t="str">
-        <v>AEFI - Expiry date (Vaccine 4)</v>
+        <v>AEFI - Date of death</v>
       </c>
       <c r="B116" s="4" t="str">
-        <v>Expiry date (Vaccine 4)</v>
+        <v>Date of death AEFI</v>
       </c>
       <c r="C116" s="4" t="str">
         <v/>
       </c>
       <c r="D116" s="4" t="str">
-        <v>The date of expiry for each vaccine</v>
+        <v/>
       </c>
       <c r="E116" s="4" t="str">
         <v>default</v>
@@ -3361,21 +3361,21 @@
         <v>2020-11-18</v>
       </c>
       <c r="G116" s="4" t="str">
-        <v>ZfjyIKeX1AN</v>
+        <v>Ze34uXcBUxi</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="5" t="str">
-        <v>AEFI - Reconstitution time 1</v>
+        <v>AEFI - Expiry date (Vaccine 4)</v>
       </c>
       <c r="B117" s="5" t="str">
-        <v>Reconstitution time 1</v>
+        <v>Expiry date (Vaccine 4)</v>
       </c>
       <c r="C117" s="5" t="str">
         <v/>
       </c>
       <c r="D117" s="5" t="str">
-        <v>Time when the vaccine was reconstituted with the diluent</v>
+        <v>The date of expiry for each vaccine</v>
       </c>
       <c r="E117" s="5" t="str">
         <v>default</v>
@@ -3384,21 +3384,21 @@
         <v>2020-11-18</v>
       </c>
       <c r="G117" s="5" t="str">
-        <v>zIKVrYHtdUx</v>
+        <v>ZfjyIKeX1AN</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="4" t="str">
-        <v>AEFI - Diluent 4</v>
+        <v>AEFI - Reconstitution time 1</v>
       </c>
       <c r="B118" s="4" t="str">
-        <v>Diluent 4</v>
+        <v>Reconstitution time 1</v>
       </c>
       <c r="C118" s="4" t="str">
         <v/>
       </c>
       <c r="D118" s="4" t="str">
-        <v>Diluent name</v>
+        <v>Time when the vaccine was reconstituted with the diluent</v>
       </c>
       <c r="E118" s="4" t="str">
         <v>default</v>
@@ -3407,21 +3407,21 @@
         <v>2020-11-18</v>
       </c>
       <c r="G118" s="4" t="str">
-        <v>ZTyN8vSf7bc</v>
+        <v>zIKVrYHtdUx</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="5" t="str">
-        <v>AEFI - Seizure type</v>
+        <v>AEFI - Diluent 4</v>
       </c>
       <c r="B119" s="5" t="str">
-        <v>Seizure type_AEFI</v>
+        <v>Diluent 4</v>
       </c>
       <c r="C119" s="5" t="str">
         <v/>
       </c>
       <c r="D119" s="5" t="str">
-        <v/>
+        <v>Diluent name</v>
       </c>
       <c r="E119" s="5" t="str">
         <v>default</v>
@@ -3430,6 +3430,29 @@
         <v>2020-11-18</v>
       </c>
       <c r="G119" s="5" t="str">
+        <v>ZTyN8vSf7bc</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="4" t="str">
+        <v>AEFI - Seizure type</v>
+      </c>
+      <c r="B120" s="4" t="str">
+        <v>Seizure type_AEFI</v>
+      </c>
+      <c r="C120" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D120" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E120" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F120" s="4" t="str">
+        <v>2020-11-18</v>
+      </c>
+      <c r="G120" s="4" t="str">
         <v>Zz4KYO4AsSY</v>
       </c>
     </row>
@@ -3439,13 +3462,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B136"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="27.7109375" customWidth="1"/>
-    <col min="2" max="2" width="51.7109375" customWidth="1"/>
+    <col min="2" max="2" width="54.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3461,7 +3484,7 @@
         <v>AEFI - Adverse Events</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>AEFI - Toxic shock syndrome</v>
+        <v>AEFI - Specify other (Severe event)</v>
       </c>
     </row>
     <row r="3">
@@ -3469,7 +3492,7 @@
         <v>AEFI - Adverse Events</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>AEFI - Vomiting</v>
+        <v>AEFI - Toxic shock syndrome</v>
       </c>
     </row>
     <row r="4">
@@ -3477,7 +3500,7 @@
         <v>AEFI - Adverse Events</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>AEFI - Severe local reaction beyond nearest joint</v>
+        <v>AEFI - Vaccine 4 dose</v>
       </c>
     </row>
     <row r="5">
@@ -3485,7 +3508,7 @@
         <v>AEFI - Adverse Events</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>AEFI - Itching</v>
+        <v>AEFI - Batch/lot number (Vaccine 2)</v>
       </c>
     </row>
     <row r="6">
@@ -3493,7 +3516,7 @@
         <v>AEFI - Adverse Events</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>AEFI - Lymph node enlargement</v>
+        <v>AEFI - Investigation needed</v>
       </c>
     </row>
     <row r="7">
@@ -3501,7 +3524,7 @@
         <v>AEFI - Adverse Events</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>AEFI - Thrombocytopenia</v>
+        <v>AEFI - Batch/lot number (Vaccine 4)</v>
       </c>
     </row>
     <row r="8">
@@ -3509,7 +3532,7 @@
         <v>AEFI - Adverse Events</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>AEFI - Persistent crying</v>
+        <v>AEFI - Vaccination 1 time</v>
       </c>
     </row>
     <row r="9">
@@ -3517,7 +3540,7 @@
         <v>AEFI - Adverse Events</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>AEFI - Headache</v>
+        <v>AEFI - Other Signs and symptoms</v>
       </c>
     </row>
     <row r="10">
@@ -3525,7 +3548,7 @@
         <v>AEFI - Adverse Events</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>AEFI - Specify other (Adverse event)</v>
+        <v>AEFI - Expiry date (Diluent 1)</v>
       </c>
     </row>
     <row r="11">
@@ -3533,7 +3556,7 @@
         <v>AEFI - Adverse Events</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>AEFI - Tiredness</v>
+        <v>AEFI - Vomiting</v>
       </c>
     </row>
     <row r="12">
@@ -3541,7 +3564,7 @@
         <v>AEFI - Adverse Events</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>AEFI - Nausea</v>
+        <v>AEFI - Date when seen for approval at national level</v>
       </c>
     </row>
     <row r="13">
@@ -3549,7 +3572,7 @@
         <v>AEFI - Adverse Events</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>AEFI - Injection site tenderness</v>
+        <v>AEFI - Final Classification</v>
       </c>
     </row>
     <row r="14">
@@ -3557,7 +3580,7 @@
         <v>AEFI - Adverse Events</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>AEFI - Anaphylaxis</v>
+        <v>AEFI - Other vaccine 2 name</v>
       </c>
     </row>
     <row r="15">
@@ -3565,7 +3588,7 @@
         <v>AEFI - Adverse Events</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>AEFI - Diarrhoea</v>
+        <v>AEFI - Death</v>
       </c>
     </row>
     <row r="16">
@@ -3573,7 +3596,7 @@
         <v>AEFI - Adverse Events</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>AEFI - Mild fever</v>
+        <v>AEFI - Vaccination 1 date</v>
       </c>
     </row>
     <row r="17">
@@ -3581,7 +3604,7 @@
         <v>AEFI - Adverse Events</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>AEFI - Fainting</v>
+        <v>AEFI - Vaccine 2 dose</v>
       </c>
     </row>
     <row r="18">
@@ -3589,7 +3612,7 @@
         <v>AEFI - Adverse Events</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>AEFI - Fatigue</v>
+        <v>AEFI - Reconstitution time 4</v>
       </c>
     </row>
     <row r="19">
@@ -3597,7 +3620,7 @@
         <v>AEFI - Adverse Events</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>AEFI - Injection site soreness</v>
+        <v>AEFI - Vaccine 2 brand</v>
       </c>
     </row>
     <row r="20">
@@ -3605,7 +3628,7 @@
         <v>AEFI - Adverse Events</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>AEFI - Encephalopathy</v>
+        <v>AEFI - Vaccination 3 date</v>
       </c>
     </row>
     <row r="21">
@@ -3613,7 +3636,7 @@
         <v>AEFI - Adverse Events</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>AEFI - Irritability</v>
+        <v>AEFI - Severe local reaction beyond nearest joint</v>
       </c>
     </row>
     <row r="22">
@@ -3621,7 +3644,7 @@
         <v>AEFI - Adverse Events</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>AEFI - Muscle pain</v>
+        <v>AEFI - Itching</v>
       </c>
     </row>
     <row r="23">
@@ -3629,7 +3652,7 @@
         <v>AEFI - Adverse Events</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>AEFI - Loss of apetite</v>
+        <v>AEFI - Expiry date (Diluent 2)</v>
       </c>
     </row>
     <row r="24">
@@ -3637,7 +3660,7 @@
         <v>AEFI - Adverse Events</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>AEFI - Drowsiness</v>
+        <v>AEFI - Expiry date (Vaccine 3)</v>
       </c>
     </row>
     <row r="25">
@@ -3645,7 +3668,7 @@
         <v>AEFI - Adverse Events</v>
       </c>
       <c r="B25" s="5" t="str">
-        <v>AEFI - Fever</v>
+        <v>AEFI - Severe event reported</v>
       </c>
     </row>
     <row r="26">
@@ -3653,7 +3676,7 @@
         <v>AEFI - Adverse Events</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>AEFI - Sore throat</v>
+        <v>AEFI - Diluent batch/lot number 1</v>
       </c>
     </row>
     <row r="27">
@@ -3661,7 +3684,7 @@
         <v>AEFI - Adverse Events</v>
       </c>
       <c r="B27" s="5" t="str">
-        <v>AEFI - Poor breast feeding</v>
+        <v>AEFI - Reconstitution date 3</v>
       </c>
     </row>
     <row r="28">
@@ -3669,7 +3692,7 @@
         <v>AEFI - Adverse Events</v>
       </c>
       <c r="B28" s="4" t="str">
-        <v>AEFI - Abdominal pain</v>
+        <v>AEFI - Vaccination 2 time</v>
       </c>
     </row>
     <row r="29">
@@ -3677,7 +3700,7 @@
         <v>AEFI - Adverse Events</v>
       </c>
       <c r="B29" s="5" t="str">
-        <v>AEFI - Chills</v>
+        <v>AEFI - Investigation planned date</v>
       </c>
     </row>
     <row r="30">
@@ -3685,7 +3708,7 @@
         <v>AEFI - Adverse Events</v>
       </c>
       <c r="B30" s="4" t="str">
-        <v>AEFI - Sepsis</v>
+        <v>AEFI - Vaccine 2 name</v>
       </c>
     </row>
     <row r="31">
@@ -3693,7 +3716,7 @@
         <v>AEFI - Adverse Events</v>
       </c>
       <c r="B31" s="5" t="str">
-        <v>AEFI - Other (Adverse event)</v>
+        <v>AEFI - Lymph node enlargement</v>
       </c>
     </row>
     <row r="32">
@@ -3701,7 +3724,7 @@
         <v>AEFI - Adverse Events</v>
       </c>
       <c r="B32" s="4" t="str">
-        <v>AEFI - Severe local reaction</v>
+        <v>AEFI - Reconstitution time 3</v>
       </c>
     </row>
     <row r="33">
@@ -3709,7 +3732,7 @@
         <v>AEFI - Adverse Events</v>
       </c>
       <c r="B33" s="5" t="str">
-        <v>AEFI - Joint pain</v>
+        <v>AEFI - Thrombocytopenia</v>
       </c>
     </row>
     <row r="34">
@@ -3717,7 +3740,7 @@
         <v>AEFI - Adverse Events</v>
       </c>
       <c r="B34" s="4" t="str">
-        <v>AEFI - Abscess</v>
+        <v>AEFI - Persistent crying</v>
       </c>
     </row>
     <row r="35">
@@ -3725,7 +3748,7 @@
         <v>AEFI - Adverse Events</v>
       </c>
       <c r="B35" s="5" t="str">
-        <v>AEFI - Seizures</v>
+        <v>AEFI - Vaccination 4 date</v>
       </c>
     </row>
     <row r="36">
@@ -3733,7 +3756,7 @@
         <v>AEFI - Adverse Events</v>
       </c>
       <c r="B36" s="4" t="str">
-        <v>AEFI - Severe local reaction &gt; 3 days</v>
+        <v>AEFI - Headache</v>
       </c>
     </row>
     <row r="37">
@@ -3741,7 +3764,7 @@
         <v>AEFI - Adverse Events</v>
       </c>
       <c r="B37" s="5" t="str">
-        <v>AEFI - Nasal congestion</v>
+        <v>AEFI - Hospitalization</v>
       </c>
     </row>
     <row r="38">
@@ -3749,7 +3772,7 @@
         <v>AEFI - Adverse Events</v>
       </c>
       <c r="B38" s="4" t="str">
-        <v>AEFI - Skin rash</v>
+        <v>AEFI - Contact number</v>
       </c>
     </row>
     <row r="39">
@@ -3757,7 +3780,7 @@
         <v>AEFI - Adverse Events</v>
       </c>
       <c r="B39" s="5" t="str">
-        <v>AEFI - Dizziness</v>
+        <v>AEFI - Specify other (Adverse event)</v>
       </c>
     </row>
     <row r="40">
@@ -3765,7 +3788,7 @@
         <v>AEFI - Adverse Events</v>
       </c>
       <c r="B40" s="4" t="str">
-        <v>AEFI - Cough</v>
+        <v>AEFI - Medical history</v>
       </c>
     </row>
     <row r="41">
@@ -3773,68 +3796,68 @@
         <v>AEFI - Adverse Events</v>
       </c>
       <c r="B41" s="5" t="str">
-        <v>AEFI - Seizure type</v>
+        <v>AEFI - Tiredness</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="str">
-        <v>Immunization tracker AEFI</v>
+        <v>AEFI - Adverse Events</v>
       </c>
       <c r="B42" s="4" t="str">
-        <v>AEFI - Expiry date (Diluent 1)</v>
+        <v>AEFI - Vaccine 1 brand</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="5" t="str">
-        <v>Immunization tracker AEFI</v>
+        <v>AEFI - Adverse Events</v>
       </c>
       <c r="B43" s="5" t="str">
-        <v>AEFI - Death</v>
+        <v>AEFI - Nausea</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="str">
-        <v>Immunization tracker AEFI</v>
+        <v>AEFI - Adverse Events</v>
       </c>
       <c r="B44" s="4" t="str">
-        <v>AEFI - Vaccination 1 date</v>
+        <v>AEFI - Injection site tenderness</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="5" t="str">
-        <v>Immunization tracker AEFI</v>
+        <v>AEFI - Adverse Events</v>
       </c>
       <c r="B45" s="5" t="str">
-        <v>AEFI - Severe event reported</v>
+        <v>AEFI - Reconstitution time 2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="str">
-        <v>Immunization tracker AEFI</v>
+        <v>AEFI - Adverse Events</v>
       </c>
       <c r="B46" s="4" t="str">
-        <v>AEFI - Diluent batch/lot number 1</v>
+        <v>AEFI - Comments</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="5" t="str">
-        <v>Immunization tracker AEFI</v>
+        <v>AEFI - Adverse Events</v>
       </c>
       <c r="B47" s="5" t="str">
-        <v>AEFI - Contact number</v>
+        <v>AEFI - Life threatening</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="4" t="str">
-        <v>Immunization tracker AEFI</v>
+        <v>AEFI - Adverse Events</v>
       </c>
       <c r="B48" s="4" t="str">
-        <v>AEFI - Medical history</v>
+        <v>AEFI - Vaccine 1 dose</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="5" t="str">
-        <v>Immunization tracker AEFI</v>
+        <v>AEFI - Adverse Events</v>
       </c>
       <c r="B49" s="5" t="str">
         <v>AEFI - Batch/lot number (Vaccine 1)</v>
@@ -3842,73 +3865,697 @@
     </row>
     <row r="50">
       <c r="A50" s="4" t="str">
-        <v>Immunization tracker AEFI</v>
+        <v>AEFI - Adverse Events</v>
       </c>
       <c r="B50" s="4" t="str">
-        <v>AEFI - AEFI time</v>
+        <v>AEFI - Congenital anomaly</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="5" t="str">
-        <v>Immunization tracker AEFI</v>
+        <v>AEFI - Adverse Events</v>
       </c>
       <c r="B51" s="5" t="str">
-        <v>AEFI - Reporter's address</v>
+        <v>AEFI - Persistent or significant disability</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="4" t="str">
-        <v>Immunization tracker AEFI</v>
+        <v>AEFI - Adverse Events</v>
       </c>
       <c r="B52" s="4" t="str">
-        <v>AEFI - Position/Department</v>
+        <v>AEFI - Vaccine 4 name</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="5" t="str">
-        <v>Immunization tracker AEFI</v>
+        <v>AEFI - Adverse Events</v>
       </c>
       <c r="B53" s="5" t="str">
-        <v>AEFI - E-mail address</v>
+        <v>AEFI - Expiry date (Diluent 3)</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="4" t="str">
-        <v>Immunization tracker AEFI</v>
+        <v>AEFI - Adverse Events</v>
       </c>
       <c r="B54" s="4" t="str">
-        <v>AEFI - Vaccine 1 name</v>
+        <v>AEFI - Anaphylaxis</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="5" t="str">
-        <v>Immunization tracker AEFI</v>
+        <v>AEFI - Adverse Events</v>
       </c>
       <c r="B55" s="5" t="str">
-        <v>AEFI - Reporter of AEFI case</v>
+        <v>AEFI - Diluent batch/lot number 3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="4" t="str">
-        <v>Immunization tracker AEFI</v>
+        <v>AEFI - Adverse Events</v>
       </c>
       <c r="B56" s="4" t="str">
-        <v>AEFI - Expiry date (Vaccine 1)</v>
+        <v>AEFI - Diluent batch/lot number 4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="5" t="str">
-        <v>Immunization tracker AEFI</v>
+        <v>AEFI - Adverse Events</v>
       </c>
       <c r="B57" s="5" t="str">
-        <v>AEFI - AEFI outcome</v>
+        <v>AEFI - Diarrhoea</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="4" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B58" s="4" t="str">
+        <v>AEFI - Mild fever</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B59" s="5" t="str">
+        <v>AEFI - Other vaccine 3 name</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="4" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B60" s="4" t="str">
+        <v>AEFI - AEFI time</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B61" s="5" t="str">
+        <v>AEFI - Fainting</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="4" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B62" s="4" t="str">
+        <v>AEFI - Reconstitution date 1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="5" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B63" s="5" t="str">
+        <v>AEFI - Vaccine 3 name</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="4" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B64" s="4" t="str">
+        <v>AEFI - Fatigue</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="5" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B65" s="5" t="str">
+        <v>AEFI - Injection site soreness</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="4" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B66" s="4" t="str">
+        <v>AEFI - Other vaccine 4 name</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="5" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B67" s="5" t="str">
+        <v>AEFI - Encephalopathy</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="4" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B68" s="4" t="str">
+        <v>AEFI - Diluent 3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="5" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B69" s="5" t="str">
+        <v>AEFI - Vaccine 4 brand</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="4" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B70" s="4" t="str">
+        <v>AEFI - Irritability</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="5" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B71" s="5" t="str">
+        <v>AEFI - Muscle pain</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="4" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B72" s="4" t="str">
+        <v>AEFI - Reporter's address</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="5" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B73" s="5" t="str">
+        <v>AEFI - Loss of apetite</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="4" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B74" s="4" t="str">
+        <v>AEFI - Expiry date (Diluent 4)</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="5" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B75" s="5" t="str">
+        <v>AEFI - Drowsiness</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="4" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B76" s="4" t="str">
+        <v>AEFI - Expiry date (Vaccine 2)</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="5" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B77" s="5" t="str">
+        <v>AEFI - Fever</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="4" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B78" s="4" t="str">
+        <v>AEFI - Vaccination 4 time</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="5" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B79" s="5" t="str">
+        <v>AEFI - Sore throat</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="4" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B80" s="4" t="str">
+        <v>AEFI - Poor breast feeding</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="5" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B81" s="5" t="str">
+        <v>AEFI - Abdominal pain</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="4" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B82" s="4" t="str">
+        <v>AEFI - Position/Department</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="5" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B83" s="5" t="str">
+        <v>AEFI - Chills</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="4" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B84" s="4" t="str">
+        <v>AEFI - Sepsis</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="5" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B85" s="5" t="str">
+        <v>AEFI - Other (Adverse event)</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="4" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B86" s="4" t="str">
+        <v>AEFI - Diluent batch/lot number 2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="5" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B87" s="5" t="str">
+        <v>AEFI - E-mail address</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="4" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B88" s="4" t="str">
+        <v>AEFI - Severe local reaction</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="5" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B89" s="5" t="str">
+        <v>AEFI - Vaccine 1 name</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="4" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B90" s="4" t="str">
+        <v>AEFI - Reporter of AEFI case</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="5" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B91" s="5" t="str">
+        <v>AEFI - Reconstitution date 4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="4" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B92" s="4" t="str">
+        <v>AEFI - Joint pain</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="5" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B93" s="5" t="str">
+        <v>AEFI - Expiry date (Vaccine 1)</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="4" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B94" s="4" t="str">
+        <v>AEFI - AEFI start date</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="5" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B95" s="5" t="str">
+        <v>AEFI - Vaccination 3 time</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="4" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B96" s="4" t="str">
+        <v>AEFI - Vaccination 2 date</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="5" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B97" s="5" t="str">
+        <v>AEFI - Other (Severe event)</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="4" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B98" s="4" t="str">
+        <v>AEFI - Abscess</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="5" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B99" s="5" t="str">
+        <v>AEFI - Seizures</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="4" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B100" s="4" t="str">
+        <v>AEFI - Vaccine 3 brand</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="5" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B101" s="5" t="str">
+        <v>AEFI - Severe local reaction &gt; 3 days</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="4" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B102" s="4" t="str">
+        <v>AEFI - Vaccine 3 dose</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="5" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B103" s="5" t="str">
+        <v>AEFI - Diluent 2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="4" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B104" s="4" t="str">
+        <v>AEFI - Nasal congestion</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="5" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B105" s="5" t="str">
+        <v>AEFI - Skin rash</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="4" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B106" s="4" t="str">
+        <v>AEFI - Diluent 1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="5" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B107" s="5" t="str">
+        <v>AEFI - Dizziness</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="4" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B108" s="4" t="str">
+        <v>AEFI - Reconstitution date 2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="5" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B109" s="5" t="str">
+        <v>AEFI - Batch/lot number (Vaccine 3)</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="4" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B110" s="4" t="str">
+        <v>AEFI - Other vaccine 1 name</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="5" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B111" s="5" t="str">
+        <v>AEFI - AEFI outcome</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="4" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B112" s="4" t="str">
+        <v>AEFI - Investigation date</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="5" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B113" s="5" t="str">
+        <v>AEFI - Autopsy conducted</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="4" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B114" s="4" t="str">
+        <v>AEFI - Cough</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="5" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B115" s="5" t="str">
+        <v>AEFI - Date of death</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="4" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B116" s="4" t="str">
+        <v>AEFI - Expiry date (Vaccine 4)</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="5" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B117" s="5" t="str">
+        <v>AEFI - Reconstitution time 1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="4" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B118" s="4" t="str">
+        <v>AEFI - Diluent 4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="5" t="str">
+        <v>AEFI - Adverse Events</v>
+      </c>
+      <c r="B119" s="5" t="str">
+        <v>AEFI - Seizure type</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="4" t="str">
         <v>Immunization tracker AEFI</v>
       </c>
-      <c r="B58" s="4" t="str">
+      <c r="B120" s="4" t="str">
+        <v>AEFI - Expiry date (Diluent 1)</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="5" t="str">
+        <v>Immunization tracker AEFI</v>
+      </c>
+      <c r="B121" s="5" t="str">
+        <v>AEFI - Death</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="4" t="str">
+        <v>Immunization tracker AEFI</v>
+      </c>
+      <c r="B122" s="4" t="str">
+        <v>AEFI - Vaccination 1 date</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="5" t="str">
+        <v>Immunization tracker AEFI</v>
+      </c>
+      <c r="B123" s="5" t="str">
+        <v>AEFI - Severe event reported</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="4" t="str">
+        <v>Immunization tracker AEFI</v>
+      </c>
+      <c r="B124" s="4" t="str">
+        <v>AEFI - Diluent batch/lot number 1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="5" t="str">
+        <v>Immunization tracker AEFI</v>
+      </c>
+      <c r="B125" s="5" t="str">
+        <v>AEFI - Contact number</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="4" t="str">
+        <v>Immunization tracker AEFI</v>
+      </c>
+      <c r="B126" s="4" t="str">
+        <v>AEFI - Medical history</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="5" t="str">
+        <v>Immunization tracker AEFI</v>
+      </c>
+      <c r="B127" s="5" t="str">
+        <v>AEFI - Batch/lot number (Vaccine 1)</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="4" t="str">
+        <v>Immunization tracker AEFI</v>
+      </c>
+      <c r="B128" s="4" t="str">
+        <v>AEFI - AEFI time</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="5" t="str">
+        <v>Immunization tracker AEFI</v>
+      </c>
+      <c r="B129" s="5" t="str">
+        <v>AEFI - Reporter's address</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="4" t="str">
+        <v>Immunization tracker AEFI</v>
+      </c>
+      <c r="B130" s="4" t="str">
+        <v>AEFI - Position/Department</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="5" t="str">
+        <v>Immunization tracker AEFI</v>
+      </c>
+      <c r="B131" s="5" t="str">
+        <v>AEFI - E-mail address</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="4" t="str">
+        <v>Immunization tracker AEFI</v>
+      </c>
+      <c r="B132" s="4" t="str">
+        <v>AEFI - Vaccine 1 name</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="5" t="str">
+        <v>Immunization tracker AEFI</v>
+      </c>
+      <c r="B133" s="5" t="str">
+        <v>AEFI - Reporter of AEFI case</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="4" t="str">
+        <v>Immunization tracker AEFI</v>
+      </c>
+      <c r="B134" s="4" t="str">
+        <v>AEFI - Expiry date (Vaccine 1)</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="5" t="str">
+        <v>Immunization tracker AEFI</v>
+      </c>
+      <c r="B135" s="5" t="str">
+        <v>AEFI - AEFI outcome</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="4" t="str">
+        <v>Immunization tracker AEFI</v>
+      </c>
+      <c r="B136" s="4" t="str">
         <v>AEFI - Reconstitution time 1</v>
       </c>
     </row>
@@ -3993,7 +4640,7 @@
         <v>default</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2020-12-15</v>
+        <v>2020-12-16</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>GLevLNI9wkl</v>
@@ -4125,16 +4772,16 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>Yes/No/Unknown</v>
+        <v>Fever_AEFI</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-06-23</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>bLA3AqDKdwx</v>
+        <v>c6Y8XeDFFkN</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>Yes; No; Unknown</v>
+        <v>&gt; 38°C; = 38°C</v>
       </c>
     </row>
     <row r="4">
@@ -4142,7 +4789,7 @@
         <v>Sex</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>2020-09-02</v>
+        <v>2020-12-17</v>
       </c>
       <c r="C4" s="4" t="str">
         <v>hiQ3QFheQ3O</v>
@@ -4213,7 +4860,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -4346,33 +4993,33 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>BJQuwQFEHAM</v>
+        <v>b9ghoh8ZZEN</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>Meningococcal A conjugate A+C</v>
+        <v>= 38°C</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>Meningococcal A conjugate A+C</v>
+        <v>= 38°C</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>2020-12-10</v>
+        <v>2020-06-23</v>
       </c>
       <c r="E8" s="4" t="str">
-        <v>kvgPHkIUf2e</v>
+        <v>c6Y8XeDFFkN</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>BSOhDi3vR22</v>
+        <v>BJQuwQFEHAM</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>Diphtheria-Tetanus-Pertussis (whole cell)-Hepatitis B</v>
+        <v>Meningococcal A conjugate A+C</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>Diphtheria-Tetanus-Pertussis (whole cell)-Hepatitis B</v>
+        <v>Meningococcal A conjugate A+C</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-12-10</v>
       </c>
       <c r="E9" s="5" t="str">
         <v>kvgPHkIUf2e</v>
@@ -4380,19 +5027,19 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>CvivP1rh4ii</v>
+        <v>BSOhDi3vR22</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>Yes</v>
+        <v>Diphtheria-Tetanus-Pertussis (whole cell)-Hepatitis B</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>YES</v>
+        <v>Diphtheria-Tetanus-Pertussis (whole cell)-Hepatitis B</v>
       </c>
       <c r="D10" s="4" t="str">
         <v>2020-08-04</v>
       </c>
       <c r="E10" s="4" t="str">
-        <v>bLA3AqDKdwx</v>
+        <v>kvgPHkIUf2e</v>
       </c>
     </row>
     <row r="11">
@@ -4941,98 +5588,98 @@
     </row>
     <row r="43">
       <c r="A43" s="5" t="str">
-        <v>PLlPgcfbL1D</v>
+        <v>PLpI7zquB3D</v>
       </c>
       <c r="B43" s="5" t="str">
-        <v>No</v>
+        <v>Polio Vaccine - Oral (OPV) Bivalent Types 1 and 3</v>
       </c>
       <c r="C43" s="5" t="str">
-        <v>NO</v>
+        <v>Polio Vaccine - Oral (OPV) Bivalent Types 1 and 3</v>
       </c>
       <c r="D43" s="5" t="str">
-        <v>2020-12-10</v>
+        <v>2020-08-04</v>
       </c>
       <c r="E43" s="5" t="str">
-        <v>bLA3AqDKdwx</v>
+        <v>kvgPHkIUf2e</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="str">
-        <v>PLpI7zquB3D</v>
+        <v>PPiqm8m7xuU</v>
       </c>
       <c r="B44" s="4" t="str">
-        <v>Polio Vaccine - Oral (OPV) Bivalent Types 1 and 3</v>
+        <v>Unkown</v>
       </c>
       <c r="C44" s="4" t="str">
-        <v>Polio Vaccine - Oral (OPV) Bivalent Types 1 and 3</v>
+        <v>Unknown</v>
       </c>
       <c r="D44" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-06-23</v>
       </c>
       <c r="E44" s="4" t="str">
-        <v>kvgPHkIUf2e</v>
+        <v>qVe6j3WUhRx</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="5" t="str">
-        <v>PPiqm8m7xuU</v>
+        <v>Px2PdkqDD5U</v>
       </c>
       <c r="B45" s="5" t="str">
-        <v>Unkown</v>
+        <v>Afebrile</v>
       </c>
       <c r="C45" s="5" t="str">
-        <v>Unknown</v>
+        <v>Afebrile</v>
       </c>
       <c r="D45" s="5" t="str">
         <v>2020-06-23</v>
       </c>
       <c r="E45" s="5" t="str">
-        <v>qVe6j3WUhRx</v>
+        <v>T5kq6ZmdtX6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="str">
-        <v>Px2PdkqDD5U</v>
+        <v>qn4b1jgRPFt</v>
       </c>
       <c r="B46" s="4" t="str">
-        <v>Afebrile</v>
+        <v>Diphtheria-Tetanus</v>
       </c>
       <c r="C46" s="4" t="str">
-        <v>Afebrile</v>
+        <v>Diptheria-Tetanus</v>
       </c>
       <c r="D46" s="4" t="str">
-        <v>2020-06-23</v>
+        <v>2020-08-04</v>
       </c>
       <c r="E46" s="4" t="str">
-        <v>T5kq6ZmdtX6</v>
+        <v>kvgPHkIUf2e</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="5" t="str">
-        <v>qn4b1jgRPFt</v>
+        <v>qyAdwyi5CRl</v>
       </c>
       <c r="B47" s="5" t="str">
-        <v>Diphtheria-Tetanus</v>
+        <v>Unclassifiable</v>
       </c>
       <c r="C47" s="5" t="str">
-        <v>Diptheria-Tetanus</v>
+        <v>Unclassifiable</v>
       </c>
       <c r="D47" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-06-23</v>
       </c>
       <c r="E47" s="5" t="str">
-        <v>kvgPHkIUf2e</v>
+        <v>AhnZu1JWskC</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="4" t="str">
-        <v>qyAdwyi5CRl</v>
+        <v>RhIczrfxRpn</v>
       </c>
       <c r="B48" s="4" t="str">
-        <v>Unclassifiable</v>
+        <v>Vaccine quailty defect-related reaction</v>
       </c>
       <c r="C48" s="4" t="str">
-        <v>Unclassifiable</v>
+        <v>Vaccine quailty defect-related reaction</v>
       </c>
       <c r="D48" s="4" t="str">
         <v>2020-06-23</v>
@@ -5043,33 +5690,33 @@
     </row>
     <row r="49">
       <c r="A49" s="5" t="str">
-        <v>RhIczrfxRpn</v>
+        <v>rJqz6pSj3si</v>
       </c>
       <c r="B49" s="5" t="str">
-        <v>Vaccine quailty defect-related reaction</v>
+        <v>Diphtheria-Tetanus-Pertussis (whole cell)</v>
       </c>
       <c r="C49" s="5" t="str">
-        <v>Vaccine quailty defect-related reaction</v>
+        <v>Diphtheria-Tetanus-Pertussis (whole cell)</v>
       </c>
       <c r="D49" s="5" t="str">
-        <v>2020-06-23</v>
+        <v>2020-08-04</v>
       </c>
       <c r="E49" s="5" t="str">
-        <v>AhnZu1JWskC</v>
+        <v>kvgPHkIUf2e</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="str">
-        <v>rJqz6pSj3si</v>
+        <v>sOHU2KjbsLl</v>
       </c>
       <c r="B50" s="4" t="str">
-        <v>Diphtheria-Tetanus-Pertussis (whole cell)</v>
+        <v>Influenza,pandemic H1N1</v>
       </c>
       <c r="C50" s="4" t="str">
-        <v>Diphtheria-Tetanus-Pertussis (whole cell)</v>
+        <v>Influenza,pandemic H1N1</v>
       </c>
       <c r="D50" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-06-29</v>
       </c>
       <c r="E50" s="4" t="str">
         <v>kvgPHkIUf2e</v>
@@ -5077,50 +5724,50 @@
     </row>
     <row r="51">
       <c r="A51" s="5" t="str">
-        <v>sOHU2KjbsLl</v>
+        <v>TOvKDhOXu3z</v>
       </c>
       <c r="B51" s="5" t="str">
-        <v>Influenza,pandemic H1N1</v>
+        <v>6</v>
       </c>
       <c r="C51" s="5" t="str">
-        <v>Influenza,pandemic H1N1</v>
+        <v>6</v>
       </c>
       <c r="D51" s="5" t="str">
-        <v>2020-06-29</v>
+        <v>2020-06-23</v>
       </c>
       <c r="E51" s="5" t="str">
-        <v>kvgPHkIUf2e</v>
+        <v>qVe6j3WUhRx</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="4" t="str">
-        <v>TKD1XJ4ZhMO</v>
+        <v>TrhGLijMX6L</v>
       </c>
       <c r="B52" s="4" t="str">
-        <v>Unknown</v>
+        <v>&gt; 38°C</v>
       </c>
       <c r="C52" s="4" t="str">
-        <v>UNKNOWN</v>
+        <v>&gt; 38°C</v>
       </c>
       <c r="D52" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-06-23</v>
       </c>
       <c r="E52" s="4" t="str">
-        <v>bLA3AqDKdwx</v>
+        <v>c6Y8XeDFFkN</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="5" t="str">
-        <v>TOvKDhOXu3z</v>
+        <v>tUbJcO77MWb</v>
       </c>
       <c r="B53" s="5" t="str">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C53" s="5" t="str">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D53" s="5" t="str">
-        <v>2020-06-23</v>
+        <v>2020-08-04</v>
       </c>
       <c r="E53" s="5" t="str">
         <v>qVe6j3WUhRx</v>
@@ -5128,118 +5775,118 @@
     </row>
     <row r="54">
       <c r="A54" s="4" t="str">
-        <v>tUbJcO77MWb</v>
+        <v>UAZAOmvXMFm</v>
       </c>
       <c r="B54" s="4" t="str">
-        <v>4</v>
+        <v>Recovering/resolving</v>
       </c>
       <c r="C54" s="4" t="str">
-        <v>4</v>
+        <v>Recovering/resolving</v>
       </c>
       <c r="D54" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-06-23</v>
       </c>
       <c r="E54" s="4" t="str">
-        <v>qVe6j3WUhRx</v>
+        <v>nmmXabkTb6w</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="5" t="str">
-        <v>UAZAOmvXMFm</v>
+        <v>uFa7M3tz4YS</v>
       </c>
       <c r="B55" s="5" t="str">
-        <v>Recovering/resolving</v>
+        <v>Polio Vaccine - Oral (OPV) Trivalent</v>
       </c>
       <c r="C55" s="5" t="str">
-        <v>Recovering/resolving</v>
+        <v>Polio Vaccine - Oral (OPV) Trivalent</v>
       </c>
       <c r="D55" s="5" t="str">
-        <v>2020-06-23</v>
+        <v>2020-08-04</v>
       </c>
       <c r="E55" s="5" t="str">
-        <v>nmmXabkTb6w</v>
+        <v>kvgPHkIUf2e</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="4" t="str">
-        <v>uFa7M3tz4YS</v>
+        <v>UrUdMteQzlT</v>
       </c>
       <c r="B56" s="4" t="str">
-        <v>Polio Vaccine - Oral (OPV) Trivalent</v>
+        <v>Male</v>
       </c>
       <c r="C56" s="4" t="str">
-        <v>Polio Vaccine - Oral (OPV) Trivalent</v>
+        <v>MALE</v>
       </c>
       <c r="D56" s="4" t="str">
         <v>2020-08-04</v>
       </c>
       <c r="E56" s="4" t="str">
-        <v>kvgPHkIUf2e</v>
+        <v>hiQ3QFheQ3O</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="5" t="str">
-        <v>UrUdMteQzlT</v>
+        <v>v6U27UZdWHO</v>
       </c>
       <c r="B57" s="5" t="str">
-        <v>Male</v>
+        <v>BCG 0.05</v>
       </c>
       <c r="C57" s="5" t="str">
-        <v>MALE</v>
+        <v>BCG</v>
       </c>
       <c r="D57" s="5" t="str">
         <v>2020-08-04</v>
       </c>
       <c r="E57" s="5" t="str">
-        <v>hiQ3QFheQ3O</v>
+        <v>kvgPHkIUf2e</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="4" t="str">
-        <v>v6U27UZdWHO</v>
+        <v>W6K5wLbTEFC</v>
       </c>
       <c r="B58" s="4" t="str">
-        <v>BCG 0.05</v>
+        <v>0</v>
       </c>
       <c r="C58" s="4" t="str">
-        <v>BCG</v>
+        <v>0</v>
       </c>
       <c r="D58" s="4" t="str">
         <v>2020-08-04</v>
       </c>
       <c r="E58" s="4" t="str">
-        <v>kvgPHkIUf2e</v>
+        <v>qVe6j3WUhRx</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="5" t="str">
-        <v>W6K5wLbTEFC</v>
+        <v>Wl3FI0neH2l</v>
       </c>
       <c r="B59" s="5" t="str">
-        <v>0</v>
+        <v>Measles,Mumps and Rubella</v>
       </c>
       <c r="C59" s="5" t="str">
-        <v>0</v>
+        <v>Measles,Mumps and Rubella</v>
       </c>
       <c r="D59" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-12-10</v>
       </c>
       <c r="E59" s="5" t="str">
-        <v>qVe6j3WUhRx</v>
+        <v>kvgPHkIUf2e</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="4" t="str">
-        <v>Wl3FI0neH2l</v>
+        <v>xa9vrhem6l5</v>
       </c>
       <c r="B60" s="4" t="str">
-        <v>Measles,Mumps and Rubella</v>
+        <v>Measles</v>
       </c>
       <c r="C60" s="4" t="str">
-        <v>Measles,Mumps and Rubella</v>
+        <v>Measles</v>
       </c>
       <c r="D60" s="4" t="str">
-        <v>2020-12-10</v>
+        <v>2020-08-04</v>
       </c>
       <c r="E60" s="4" t="str">
         <v>kvgPHkIUf2e</v>
@@ -5247,16 +5894,16 @@
     </row>
     <row r="61">
       <c r="A61" s="5" t="str">
-        <v>xa9vrhem6l5</v>
+        <v>xBhmeD8LHXC</v>
       </c>
       <c r="B61" s="5" t="str">
-        <v>Measles</v>
+        <v>Hepatitis B</v>
       </c>
       <c r="C61" s="5" t="str">
-        <v>Measles</v>
+        <v>Hepatitis B (Hep B)</v>
       </c>
       <c r="D61" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-06-29</v>
       </c>
       <c r="E61" s="5" t="str">
         <v>kvgPHkIUf2e</v>
@@ -5264,50 +5911,50 @@
     </row>
     <row r="62">
       <c r="A62" s="4" t="str">
-        <v>xBhmeD8LHXC</v>
+        <v>XBuHBWO4C4G</v>
       </c>
       <c r="B62" s="4" t="str">
-        <v>Hepatitis B</v>
+        <v>Unknown</v>
       </c>
       <c r="C62" s="4" t="str">
-        <v>Hepatitis B (Hep B)</v>
+        <v>Unknown</v>
       </c>
       <c r="D62" s="4" t="str">
-        <v>2020-06-29</v>
+        <v>2020-08-04</v>
       </c>
       <c r="E62" s="4" t="str">
-        <v>kvgPHkIUf2e</v>
+        <v>nmmXabkTb6w</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="5" t="str">
-        <v>XBuHBWO4C4G</v>
+        <v>XHXb4sOMRzW</v>
       </c>
       <c r="B63" s="5" t="str">
-        <v>Unknown</v>
+        <v>Polio Vaccine- Inactivated (IPV)</v>
       </c>
       <c r="C63" s="5" t="str">
-        <v>Unknown</v>
+        <v>Polio (IPV)</v>
       </c>
       <c r="D63" s="5" t="str">
         <v>2020-08-04</v>
       </c>
       <c r="E63" s="5" t="str">
-        <v>nmmXabkTb6w</v>
+        <v>kvgPHkIUf2e</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="4" t="str">
-        <v>XHXb4sOMRzW</v>
+        <v>xrdO4MYjuLz</v>
       </c>
       <c r="B64" s="4" t="str">
-        <v>Polio Vaccine- Inactivated (IPV)</v>
+        <v>Meningococcal A conjugate ACYW-135 (conjugate vaccine)</v>
       </c>
       <c r="C64" s="4" t="str">
-        <v>Polio (IPV)</v>
+        <v>Meningococcal A conjugate ACYW-135 (conjugate vaccine)</v>
       </c>
       <c r="D64" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-06-29</v>
       </c>
       <c r="E64" s="4" t="str">
         <v>kvgPHkIUf2e</v>
@@ -5315,16 +5962,16 @@
     </row>
     <row r="65">
       <c r="A65" s="5" t="str">
-        <v>xrdO4MYjuLz</v>
+        <v>XV2R9f00cZA</v>
       </c>
       <c r="B65" s="5" t="str">
-        <v>Meningococcal A conjugate ACYW-135 (conjugate vaccine)</v>
+        <v>Meningococcal A conjugate</v>
       </c>
       <c r="C65" s="5" t="str">
-        <v>Meningococcal A conjugate ACYW-135 (conjugate vaccine)</v>
+        <v>Meningococcal A conjugate</v>
       </c>
       <c r="D65" s="5" t="str">
-        <v>2020-06-29</v>
+        <v>2020-08-04</v>
       </c>
       <c r="E65" s="5" t="str">
         <v>kvgPHkIUf2e</v>
@@ -5332,16 +5979,16 @@
     </row>
     <row r="66">
       <c r="A66" s="4" t="str">
-        <v>XV2R9f00cZA</v>
+        <v>Yawfhw0ObTW</v>
       </c>
       <c r="B66" s="4" t="str">
-        <v>Meningococcal A conjugate</v>
+        <v>Other Vaccine (Specify)</v>
       </c>
       <c r="C66" s="4" t="str">
-        <v>Meningococcal A conjugate</v>
+        <v>Other Vaccine</v>
       </c>
       <c r="D66" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-06-29</v>
       </c>
       <c r="E66" s="4" t="str">
         <v>kvgPHkIUf2e</v>
@@ -5349,16 +5996,16 @@
     </row>
     <row r="67">
       <c r="A67" s="5" t="str">
-        <v>Yawfhw0ObTW</v>
+        <v>z7xruNgtCUI</v>
       </c>
       <c r="B67" s="5" t="str">
-        <v>Other Vaccine (Specify)</v>
+        <v>Diphtheria-Tetanus-Pertussis (whole cell)-Haemophilus influenzae type B</v>
       </c>
       <c r="C67" s="5" t="str">
-        <v>Other Vaccine</v>
+        <v>Diphtheria-Tetanus-Pertussis (whole cell)-Haemophilus influenzae type B</v>
       </c>
       <c r="D67" s="5" t="str">
-        <v>2020-06-29</v>
+        <v>2020-12-10</v>
       </c>
       <c r="E67" s="5" t="str">
         <v>kvgPHkIUf2e</v>
@@ -5366,13 +6013,13 @@
     </row>
     <row r="68">
       <c r="A68" s="4" t="str">
-        <v>z7xruNgtCUI</v>
+        <v>ZexdFUmUFgD</v>
       </c>
       <c r="B68" s="4" t="str">
-        <v>Diphtheria-Tetanus-Pertussis (whole cell)-Haemophilus influenzae type B</v>
+        <v>Haemophilus influenzae type B</v>
       </c>
       <c r="C68" s="4" t="str">
-        <v>Diphtheria-Tetanus-Pertussis (whole cell)-Haemophilus influenzae type B</v>
+        <v>Haemophilus influenzae type B</v>
       </c>
       <c r="D68" s="4" t="str">
         <v>2020-12-10</v>
@@ -5383,69 +6030,52 @@
     </row>
     <row r="69">
       <c r="A69" s="5" t="str">
-        <v>ZexdFUmUFgD</v>
+        <v>ZJJXzyKh2tC</v>
       </c>
       <c r="B69" s="5" t="str">
-        <v>Haemophilus influenzae type B</v>
+        <v>Immunization anxiety-related reaction</v>
       </c>
       <c r="C69" s="5" t="str">
-        <v>Haemophilus influenzae type B</v>
+        <v>Immunization anxiety-related reaction</v>
       </c>
       <c r="D69" s="5" t="str">
-        <v>2020-12-10</v>
+        <v>2020-06-23</v>
       </c>
       <c r="E69" s="5" t="str">
-        <v>kvgPHkIUf2e</v>
+        <v>AhnZu1JWskC</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="4" t="str">
-        <v>ZJJXzyKh2tC</v>
+        <v>ZM09G0HaYYv</v>
       </c>
       <c r="B70" s="4" t="str">
-        <v>Immunization anxiety-related reaction</v>
+        <v>Diphtheria-Tetanus (acellular) - Hepatitis B -Haemophilus influenzae type B -Polio (inactivated)</v>
       </c>
       <c r="C70" s="4" t="str">
-        <v>Immunization anxiety-related reaction</v>
+        <v>Diphtheria-Tetanus (acellular) - Hepatitis B -Haemophilus influenzae type B -Polio (inactivated)</v>
       </c>
       <c r="D70" s="4" t="str">
-        <v>2020-06-23</v>
+        <v>2020-12-10</v>
       </c>
       <c r="E70" s="4" t="str">
-        <v>AhnZu1JWskC</v>
+        <v>kvgPHkIUf2e</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="5" t="str">
-        <v>ZM09G0HaYYv</v>
+        <v>zX4wTgc2oH8</v>
       </c>
       <c r="B71" s="5" t="str">
-        <v>Diphtheria-Tetanus (acellular) - Hepatitis B -Haemophilus influenzae type B -Polio (inactivated)</v>
+        <v>Immunization error-related reaction</v>
       </c>
       <c r="C71" s="5" t="str">
-        <v>Diphtheria-Tetanus (acellular) - Hepatitis B -Haemophilus influenzae type B -Polio (inactivated)</v>
+        <v>Immunization error-related reaction</v>
       </c>
       <c r="D71" s="5" t="str">
-        <v>2020-12-10</v>
+        <v>2020-06-23</v>
       </c>
       <c r="E71" s="5" t="str">
-        <v>kvgPHkIUf2e</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="4" t="str">
-        <v>zX4wTgc2oH8</v>
-      </c>
-      <c r="B72" s="4" t="str">
-        <v>Immunization error-related reaction</v>
-      </c>
-      <c r="C72" s="4" t="str">
-        <v>Immunization error-related reaction</v>
-      </c>
-      <c r="D72" s="4" t="str">
-        <v>2020-06-23</v>
-      </c>
-      <c r="E72" s="4" t="str">
         <v>AhnZu1JWskC</v>
       </c>
     </row>
@@ -5568,7 +6198,7 @@
         <v>Person</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2020-12-10</v>
+        <v>2020-12-16</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>MCPQUTHX1Ze</v>
@@ -6320,7 +6950,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2020-12-14</v>
+        <v>2020-12-17</v>
       </c>
       <c r="D3" s="5" t="str">
         <v>ARb6cC85Tnr</v>
@@ -6348,7 +6978,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>2020-11-30</v>
+        <v>2020-12-17</v>
       </c>
       <c r="D5" s="5" t="str">
         <v>bRZac7ysPZp</v>
@@ -6814,7 +7444,7 @@
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
   </cols>
@@ -6835,7 +7465,7 @@
         <v>AEFI access</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2020-12-10</v>
+        <v>2020-12-17</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>J3mFUNTreYY</v>
@@ -6857,7 +7487,7 @@
         <v>AEFI data capture</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>2020-12-10</v>
+        <v>2020-12-17</v>
       </c>
       <c r="C4" s="4" t="str">
         <v>RWyhKm0cuQ5</v>
@@ -6876,10 +7506,10 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>AEFI decision making</v>
+        <v>AEFI first-level decision making</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>2020-12-09</v>
+        <v>2020-12-16</v>
       </c>
       <c r="C6" s="4" t="str">
         <v>xgu9ZjvZRPG</v>
@@ -6995,7 +7625,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -7035,7 +7665,7 @@
         <v>Family name of the patient</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-12-17</v>
       </c>
       <c r="E2" s="4" t="str">
         <v>aW66s2QSosT</v>
@@ -7052,7 +7682,7 @@
         <v>Date patient was born</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>2020-08-10</v>
+        <v>2020-12-17</v>
       </c>
       <c r="E3" s="5" t="str">
         <v>BiTsLcJQ95V</v>
@@ -7069,7 +7699,7 @@
         <v>Sex of Person</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-12-17</v>
       </c>
       <c r="E4" s="4" t="str">
         <v>CklPZdOd6H1</v>
@@ -7077,87 +7707,121 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>AEFI Case ID</v>
+        <v>National ID</v>
       </c>
       <c r="B5" s="5" t="str">
         <v/>
       </c>
       <c r="C5" s="5" t="str">
-        <v xml:space="preserve">Case ID assigned for adverse events following immunization </v>
+        <v/>
       </c>
       <c r="D5" s="5" t="str">
-        <v>2020-11-29</v>
+        <v>2020-08-04</v>
       </c>
       <c r="E5" s="5" t="str">
-        <v>h5FuguPFF2j</v>
+        <v>Ewi7FUfcHAD</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
+        <v>AEFI Case ID</v>
+      </c>
+      <c r="B6" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C6" s="4" t="str">
+        <v xml:space="preserve">Case ID assigned for adverse events following immunization </v>
+      </c>
+      <c r="D6" s="4" t="str">
+        <v>2020-12-17</v>
+      </c>
+      <c r="E6" s="4" t="str">
+        <v>h5FuguPFF2j</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="str">
         <v>Unique System Identifier (EPI)</v>
       </c>
-      <c r="B6" s="4" t="str">
-        <v/>
-      </c>
-      <c r="C6" s="4" t="str">
+      <c r="B7" s="5" t="str">
+        <v/>
+      </c>
+      <c r="C7" s="5" t="str">
         <v>System-generated unique ID following pattern: CURRENT_DATE(yyyy-MM-dd) followed by a sequential number (#####)</v>
       </c>
-      <c r="D6" s="4" t="str">
-        <v>2020-10-10</v>
-      </c>
-      <c r="E6" s="4" t="str">
+      <c r="D7" s="5" t="str">
+        <v>2020-12-17</v>
+      </c>
+      <c r="E7" s="5" t="str">
         <v>KSr2yTdu1AI</v>
       </c>
     </row>
-    <row r="7" xml:space="preserve">
-      <c r="A7" s="5" t="str">
+    <row r="8">
+      <c r="A8" s="4" t="str">
+        <v>Date of birth (age)</v>
+      </c>
+      <c r="B8" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C8" s="4" t="str">
+        <v>Date of birth plus calculated age</v>
+      </c>
+      <c r="D8" s="4" t="str">
+        <v>2020-12-10</v>
+      </c>
+      <c r="E8" s="4" t="str">
+        <v>mAWcalQYYyk</v>
+      </c>
+    </row>
+    <row r="9" xml:space="preserve">
+      <c r="A9" s="5" t="str">
         <v>Mother/Caregiver's contact number</v>
       </c>
-      <c r="B7" s="5" t="str">
-        <v/>
-      </c>
-      <c r="C7" s="5" t="str" xml:space="preserve">
+      <c r="B9" s="5" t="str">
+        <v/>
+      </c>
+      <c r="C9" s="5" t="str" xml:space="preserve">
         <v xml:space="preserve">
 Number to contact to provide or receive additional information.</v>
       </c>
-      <c r="D7" s="5" t="str">
-        <v>2020-10-16</v>
-      </c>
-      <c r="E7" s="5" t="str">
+      <c r="D9" s="5" t="str">
+        <v>2020-12-17</v>
+      </c>
+      <c r="E9" s="5" t="str">
         <v>pjexi5YaAPa</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="4" t="str">
+    <row r="10">
+      <c r="A10" s="4" t="str">
         <v>Given name</v>
       </c>
-      <c r="B8" s="4" t="str">
-        <v/>
-      </c>
-      <c r="C8" s="4" t="str">
+      <c r="B10" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C10" s="4" t="str">
         <v>The name of the patient or initials</v>
       </c>
-      <c r="D8" s="4" t="str">
-        <v>2020-10-16</v>
-      </c>
-      <c r="E8" s="4" t="str">
+      <c r="D10" s="4" t="str">
+        <v>2020-12-17</v>
+      </c>
+      <c r="E10" s="4" t="str">
         <v>TfdH5KvFmMy</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="5" t="str">
+    <row r="11">
+      <c r="A11" s="5" t="str">
         <v>Address (current)</v>
       </c>
-      <c r="B9" s="5" t="str">
-        <v/>
-      </c>
-      <c r="C9" s="5" t="str">
+      <c r="B11" s="5" t="str">
+        <v/>
+      </c>
+      <c r="C11" s="5" t="str">
         <v xml:space="preserve">Current home address of the patient/case </v>
       </c>
-      <c r="D9" s="5" t="str">
-        <v>2020-12-10</v>
-      </c>
-      <c r="E9" s="5" t="str">
+      <c r="D11" s="5" t="str">
+        <v>2020-12-17</v>
+      </c>
+      <c r="E11" s="5" t="str">
         <v>VCtm2pySeEV</v>
       </c>
     </row>
@@ -7200,7 +7864,7 @@
         <v>Person</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2020-11-25</v>
+        <v>2020-12-17</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>EZkN8vYZwjR</v>
@@ -7245,7 +7909,7 @@
         <v>Noldaaz2TLs</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2020-12-15T21:07:20.989</v>
+        <v>2020-12-16T15:00:20.546</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>EZkN8vYZwjR</v>
@@ -7259,7 +7923,7 @@
         <v>so8YZ9J3MeO</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2020-12-15T21:07:20.957</v>
+        <v>2020-12-16T15:00:20.482</v>
       </c>
       <c r="D3" s="5" t="str">
         <v>EZkN8vYZwjR</v>
@@ -7273,7 +7937,7 @@
         <v>Y4v9hBo2Xst</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>2020-12-15T21:07:20.992</v>
+        <v>2020-12-16T15:00:20.550</v>
       </c>
       <c r="D4" s="4" t="str">
         <v>EZkN8vYZwjR</v>
@@ -8411,10 +9075,10 @@
         <v>AEFI</v>
       </c>
       <c r="B102" s="4" t="str">
-        <v>Diluent 4 details</v>
+        <v/>
       </c>
       <c r="C102" s="4" t="str">
-        <v>AEFI - Diluent batch/lot number 4</v>
+        <v>AEFI - Autopsy conducted</v>
       </c>
     </row>
     <row r="103">
@@ -8422,10 +9086,10 @@
         <v>AEFI</v>
       </c>
       <c r="B103" s="5" t="str">
-        <v/>
+        <v>Diluent 4 details</v>
       </c>
       <c r="C103" s="5" t="str">
-        <v>Autopsy requested</v>
+        <v>AEFI - Diluent batch/lot number 4</v>
       </c>
     </row>
     <row r="104">
@@ -8599,7 +9263,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H168"/>
+  <dimension ref="A1:H170"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -10454,7 +11118,7 @@
         <v>EVENT</v>
       </c>
       <c r="G71" s="5" t="str">
-        <v>2020-11-25</v>
+        <v>2020-12-17</v>
       </c>
       <c r="H71" s="5" t="str">
         <v>EZkN8vYZwjR</v>
@@ -11138,25 +11802,25 @@
     </row>
     <row r="98">
       <c r="A98" s="4" t="str">
-        <v>pvBalmFbWCr</v>
+        <v>Ptv9alCBQwr</v>
       </c>
       <c r="B98" s="4" t="str">
-        <v>Toxic shock syndrome_ Pentavalent</v>
+        <v>Autopsy details unknown</v>
       </c>
       <c r="C98" s="4" t="str">
-        <v>Toxic shock syndrome_ Pentavalent (DPT-Hep B-Hib)</v>
+        <v>Autopsy details unknown</v>
       </c>
       <c r="D98" s="4" t="str">
         <v/>
       </c>
       <c r="E98" s="4" t="str">
-        <v/>
+        <v>Autopsy details unknown</v>
       </c>
       <c r="F98" s="4" t="str">
         <v>EVENT</v>
       </c>
       <c r="G98" s="4" t="str">
-        <v>2020-06-23</v>
+        <v>2020-12-17</v>
       </c>
       <c r="H98" s="4" t="str">
         <v>EZkN8vYZwjR</v>
@@ -11164,13 +11828,13 @@
     </row>
     <row r="99">
       <c r="A99" s="5" t="str">
-        <v>PWdbGzipNXo</v>
+        <v>pvBalmFbWCr</v>
       </c>
       <c r="B99" s="5" t="str">
-        <v>DON minus Vaccination date (8-28 days)</v>
+        <v>Toxic shock syndrome_ Pentavalent</v>
       </c>
       <c r="C99" s="5" t="str">
-        <v>DON minus Vaccination date (8-28 days)</v>
+        <v>Toxic shock syndrome_ Pentavalent (DPT-Hep B-Hib)</v>
       </c>
       <c r="D99" s="5" t="str">
         <v/>
@@ -11190,13 +11854,13 @@
     </row>
     <row r="100">
       <c r="A100" s="4" t="str">
-        <v>q2rdG7qpUS9</v>
+        <v>PWdbGzipNXo</v>
       </c>
       <c r="B100" s="4" t="str">
-        <v>Other Vaccine</v>
+        <v>DON minus Vaccination date (8-28 days)</v>
       </c>
       <c r="C100" s="4" t="str">
-        <v>Other Vaccine</v>
+        <v>DON minus Vaccination date (8-28 days)</v>
       </c>
       <c r="D100" s="4" t="str">
         <v/>
@@ -11216,13 +11880,13 @@
     </row>
     <row r="101">
       <c r="A101" s="5" t="str">
-        <v>qETlfay1VpL</v>
+        <v>q2rdG7qpUS9</v>
       </c>
       <c r="B101" s="5" t="str">
-        <v xml:space="preserve">Other </v>
+        <v>Other Vaccine</v>
       </c>
       <c r="C101" s="5" t="str">
-        <v>Other - Adverse event</v>
+        <v>Other Vaccine</v>
       </c>
       <c r="D101" s="5" t="str">
         <v/>
@@ -11242,13 +11906,13 @@
     </row>
     <row r="102">
       <c r="A102" s="4" t="str">
-        <v>QsCxgGJegsc</v>
+        <v>qETlfay1VpL</v>
       </c>
       <c r="B102" s="4" t="str">
-        <v>DPT (Diphtheria-Tetanus-Pertussis)</v>
+        <v xml:space="preserve">Other </v>
       </c>
       <c r="C102" s="4" t="str">
-        <v>DPT (Diphtheria-Tetanus-Pertussis)</v>
+        <v>Other - Adverse event</v>
       </c>
       <c r="D102" s="4" t="str">
         <v/>
@@ -11268,13 +11932,13 @@
     </row>
     <row r="103">
       <c r="A103" s="5" t="str">
-        <v>QT8eQm7GXyb</v>
+        <v>QsCxgGJegsc</v>
       </c>
       <c r="B103" s="5" t="str">
-        <v>Rotavirus</v>
+        <v>DPT (Diphtheria-Tetanus-Pertussis)</v>
       </c>
       <c r="C103" s="5" t="str">
-        <v>Rotavirus</v>
+        <v>DPT (Diphtheria-Tetanus-Pertussis)</v>
       </c>
       <c r="D103" s="5" t="str">
         <v/>
@@ -11286,7 +11950,7 @@
         <v>EVENT</v>
       </c>
       <c r="G103" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-06-23</v>
       </c>
       <c r="H103" s="5" t="str">
         <v>EZkN8vYZwjR</v>
@@ -11294,13 +11958,13 @@
     </row>
     <row r="104">
       <c r="A104" s="4" t="str">
-        <v>qYQ5mvsVUec</v>
+        <v>QT8eQm7GXyb</v>
       </c>
       <c r="B104" s="4" t="str">
-        <v>Fever_Rubella</v>
+        <v>Rotavirus</v>
       </c>
       <c r="C104" s="4" t="str">
-        <v>Fever_Rubella</v>
+        <v>Rotavirus</v>
       </c>
       <c r="D104" s="4" t="str">
         <v/>
@@ -11312,7 +11976,7 @@
         <v>EVENT</v>
       </c>
       <c r="G104" s="4" t="str">
-        <v>2020-06-23</v>
+        <v>2020-08-04</v>
       </c>
       <c r="H104" s="4" t="str">
         <v>EZkN8vYZwjR</v>
@@ -11320,13 +11984,13 @@
     </row>
     <row r="105">
       <c r="A105" s="5" t="str">
-        <v>qZ4esRrriZH</v>
+        <v>qYQ5mvsVUec</v>
       </c>
       <c r="B105" s="5" t="str">
-        <v>Abscess_PCV</v>
+        <v>Fever_Rubella</v>
       </c>
       <c r="C105" s="5" t="str">
-        <v>Abscess_PCV</v>
+        <v>Fever_Rubella</v>
       </c>
       <c r="D105" s="5" t="str">
         <v/>
@@ -11346,13 +12010,13 @@
     </row>
     <row r="106">
       <c r="A106" s="4" t="str">
-        <v>QzcIHYTgW1c</v>
+        <v>qZ4esRrriZH</v>
       </c>
       <c r="B106" s="4" t="str">
-        <v>DOR minus DON (0 Days)</v>
+        <v>Abscess_PCV</v>
       </c>
       <c r="C106" s="4" t="str">
-        <v>Time interval - Notification and report (0 Days)</v>
+        <v>Abscess_PCV</v>
       </c>
       <c r="D106" s="4" t="str">
         <v/>
@@ -11372,13 +12036,13 @@
     </row>
     <row r="107">
       <c r="A107" s="5" t="str">
-        <v>RA0yphq6bqU</v>
+        <v>QzcIHYTgW1c</v>
       </c>
       <c r="B107" s="5" t="str">
-        <v>Seizures_ Pentavalent</v>
+        <v>DOR minus DON (0 Days)</v>
       </c>
       <c r="C107" s="5" t="str">
-        <v>Seizures_ Pentavalent (DPT-Hep B-Hib)</v>
+        <v>Time interval - Notification and report (0 Days)</v>
       </c>
       <c r="D107" s="5" t="str">
         <v/>
@@ -11398,13 +12062,13 @@
     </row>
     <row r="108">
       <c r="A108" s="4" t="str">
-        <v>Rcg67UXQt7x</v>
+        <v>RA0yphq6bqU</v>
       </c>
       <c r="B108" s="4" t="str">
-        <v>DOR-N minus DOR (1-2 days)</v>
+        <v>Seizures_ Pentavalent</v>
       </c>
       <c r="C108" s="4" t="str">
-        <v>DOR-N minus DOR (1-2 days)</v>
+        <v>Seizures_ Pentavalent (DPT-Hep B-Hib)</v>
       </c>
       <c r="D108" s="4" t="str">
         <v/>
@@ -11424,13 +12088,13 @@
     </row>
     <row r="109">
       <c r="A109" s="5" t="str">
-        <v>rd03AF14iSq</v>
+        <v>Rcg67UXQt7x</v>
       </c>
       <c r="B109" s="5" t="str">
-        <v xml:space="preserve">Severe local reaction_BCG 0.05 </v>
+        <v>DOR-N minus DOR (1-2 days)</v>
       </c>
       <c r="C109" s="5" t="str">
-        <v xml:space="preserve">Severe local reaction_BCG 0.05 </v>
+        <v>DOR-N minus DOR (1-2 days)</v>
       </c>
       <c r="D109" s="5" t="str">
         <v/>
@@ -11450,13 +12114,13 @@
     </row>
     <row r="110">
       <c r="A110" s="4" t="str">
-        <v>rDHxK3cVT91</v>
+        <v>rd03AF14iSq</v>
       </c>
       <c r="B110" s="4" t="str">
-        <v>Fever</v>
+        <v xml:space="preserve">Severe local reaction_BCG 0.05 </v>
       </c>
       <c r="C110" s="4" t="str">
-        <v>Fever</v>
+        <v xml:space="preserve">Severe local reaction_BCG 0.05 </v>
       </c>
       <c r="D110" s="4" t="str">
         <v/>
@@ -11468,7 +12132,7 @@
         <v>EVENT</v>
       </c>
       <c r="G110" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-06-23</v>
       </c>
       <c r="H110" s="4" t="str">
         <v>EZkN8vYZwjR</v>
@@ -11476,13 +12140,13 @@
     </row>
     <row r="111">
       <c r="A111" s="5" t="str">
-        <v>rI4RegfigLv</v>
+        <v>rDHxK3cVT91</v>
       </c>
       <c r="B111" s="5" t="str">
-        <v>Severe local reaction_ Diphtheria-Tetanus-Pertussis (whole cell)-Hepatitis B</v>
+        <v>Fever</v>
       </c>
       <c r="C111" s="5" t="str">
-        <v>Severe local reaction_ Diphtheria-Tetanus-Pertu</v>
+        <v>Fever</v>
       </c>
       <c r="D111" s="5" t="str">
         <v/>
@@ -11494,7 +12158,7 @@
         <v>EVENT</v>
       </c>
       <c r="G111" s="5" t="str">
-        <v>2020-06-23</v>
+        <v>2020-08-04</v>
       </c>
       <c r="H111" s="5" t="str">
         <v>EZkN8vYZwjR</v>
@@ -11502,13 +12166,13 @@
     </row>
     <row r="112">
       <c r="A112" s="4" t="str">
-        <v>rmeJzg2FO6l</v>
+        <v>rI4RegfigLv</v>
       </c>
       <c r="B112" s="4" t="str">
-        <v>Investigation needed</v>
+        <v>Severe local reaction_ Diphtheria-Tetanus-Pertussis (whole cell)-Hepatitis B</v>
       </c>
       <c r="C112" s="4" t="str">
-        <v>Investigation needed</v>
+        <v>Severe local reaction_ Diphtheria-Tetanus-Pertu</v>
       </c>
       <c r="D112" s="4" t="str">
         <v/>
@@ -11528,13 +12192,13 @@
     </row>
     <row r="113">
       <c r="A113" s="5" t="str">
-        <v>RNQWrSktIo3</v>
+        <v>rmeJzg2FO6l</v>
       </c>
       <c r="B113" s="5" t="str">
-        <v>Thromobocyctopenia_Hep B</v>
+        <v>Investigation needed</v>
       </c>
       <c r="C113" s="5" t="str">
-        <v>Thromobocyctopenia_Hepatitis B (Hep B)</v>
+        <v>Investigation needed</v>
       </c>
       <c r="D113" s="5" t="str">
         <v/>
@@ -11554,13 +12218,13 @@
     </row>
     <row r="114">
       <c r="A114" s="4" t="str">
-        <v>S0PuOlr8yCb</v>
+        <v>RNQWrSktIo3</v>
       </c>
       <c r="B114" s="4" t="str">
-        <v>Severe local reaction with BCG 0.1</v>
+        <v>Thromobocyctopenia_Hep B</v>
       </c>
       <c r="C114" s="4" t="str">
-        <v>Severe local reaction with BCG 0.1</v>
+        <v>Thromobocyctopenia_Hepatitis B (Hep B)</v>
       </c>
       <c r="D114" s="4" t="str">
         <v/>
@@ -11580,13 +12244,13 @@
     </row>
     <row r="115">
       <c r="A115" s="5" t="str">
-        <v>S66NmFZVpVo</v>
+        <v>S0PuOlr8yCb</v>
       </c>
       <c r="B115" s="5" t="str">
-        <v>DOR-N minus DON  (1-2 days)</v>
+        <v>Severe local reaction with BCG 0.1</v>
       </c>
       <c r="C115" s="5" t="str">
-        <v>DOR-N minus DON  (1-2 days)</v>
+        <v>Severe local reaction with BCG 0.1</v>
       </c>
       <c r="D115" s="5" t="str">
         <v/>
@@ -11606,13 +12270,13 @@
     </row>
     <row r="116">
       <c r="A116" s="4" t="str">
-        <v>s8LRQRQlJQ2</v>
+        <v>S66NmFZVpVo</v>
       </c>
       <c r="B116" s="4" t="str">
-        <v>Encephalopathy</v>
+        <v>DOR-N minus DON  (1-2 days)</v>
       </c>
       <c r="C116" s="4" t="str">
-        <v>Encephalopathy</v>
+        <v>DOR-N minus DON  (1-2 days)</v>
       </c>
       <c r="D116" s="4" t="str">
         <v/>
@@ -11632,19 +12296,19 @@
     </row>
     <row r="117">
       <c r="A117" s="5" t="str">
-        <v>SEWYEjx91z0</v>
+        <v>s8LRQRQlJQ2</v>
       </c>
       <c r="B117" s="5" t="str">
-        <v>Not recovered/not resolved</v>
+        <v>Encephalopathy</v>
       </c>
       <c r="C117" s="5" t="str">
-        <v>Not recovered/not resolved</v>
+        <v>Encephalopathy</v>
       </c>
       <c r="D117" s="5" t="str">
         <v/>
       </c>
       <c r="E117" s="5" t="str">
-        <v>AEFI Outcome - Not recovered/not resolved</v>
+        <v/>
       </c>
       <c r="F117" s="5" t="str">
         <v>EVENT</v>
@@ -11658,25 +12322,25 @@
     </row>
     <row r="118">
       <c r="A118" s="4" t="str">
-        <v>SIdmJwSyE8S</v>
+        <v>SEWYEjx91z0</v>
       </c>
       <c r="B118" s="4" t="str">
-        <v>AEFI Hospitalisation</v>
+        <v>Not recovered/not resolved</v>
       </c>
       <c r="C118" s="4" t="str">
-        <v>AEFI Hospitalisation</v>
+        <v>Not recovered/not resolved</v>
       </c>
       <c r="D118" s="4" t="str">
         <v/>
       </c>
       <c r="E118" s="4" t="str">
-        <v/>
+        <v>AEFI Outcome - Not recovered/not resolved</v>
       </c>
       <c r="F118" s="4" t="str">
         <v>EVENT</v>
       </c>
       <c r="G118" s="4" t="str">
-        <v>2020-11-25</v>
+        <v>2020-06-23</v>
       </c>
       <c r="H118" s="4" t="str">
         <v>EZkN8vYZwjR</v>
@@ -11684,13 +12348,13 @@
     </row>
     <row r="119">
       <c r="A119" s="5" t="str">
-        <v>SjWvLW5Xvuz</v>
+        <v>SIdmJwSyE8S</v>
       </c>
       <c r="B119" s="5" t="str">
-        <v>Sepsis_ Pentavalent</v>
+        <v>AEFI Hospitalisation</v>
       </c>
       <c r="C119" s="5" t="str">
-        <v>Sepsis_ Pentavalent (DPT-Hep B-Hib)</v>
+        <v>AEFI Hospitalisation</v>
       </c>
       <c r="D119" s="5" t="str">
         <v/>
@@ -11702,7 +12366,7 @@
         <v>EVENT</v>
       </c>
       <c r="G119" s="5" t="str">
-        <v>2020-06-23</v>
+        <v>2020-11-25</v>
       </c>
       <c r="H119" s="5" t="str">
         <v>EZkN8vYZwjR</v>
@@ -11710,13 +12374,13 @@
     </row>
     <row r="120">
       <c r="A120" s="4" t="str">
-        <v>skhFyxVPEdA</v>
+        <v>SjWvLW5Xvuz</v>
       </c>
       <c r="B120" s="4" t="str">
-        <v>AEFI serious cases</v>
+        <v>Sepsis_ Pentavalent</v>
       </c>
       <c r="C120" s="4" t="str">
-        <v>AEFI serious cases</v>
+        <v>Sepsis_ Pentavalent (DPT-Hep B-Hib)</v>
       </c>
       <c r="D120" s="4" t="str">
         <v/>
@@ -11728,7 +12392,7 @@
         <v>EVENT</v>
       </c>
       <c r="G120" s="4" t="str">
-        <v>2020-12-01</v>
+        <v>2020-06-23</v>
       </c>
       <c r="H120" s="4" t="str">
         <v>EZkN8vYZwjR</v>
@@ -11736,13 +12400,13 @@
     </row>
     <row r="121">
       <c r="A121" s="5" t="str">
-        <v>sltshNgdZPv</v>
+        <v>skhFyxVPEdA</v>
       </c>
       <c r="B121" s="5" t="str">
-        <v>Anaphylaxis_Rubella</v>
+        <v>AEFI serious cases</v>
       </c>
       <c r="C121" s="5" t="str">
-        <v>Anaphylaxis_Rubella</v>
+        <v>AEFI serious cases</v>
       </c>
       <c r="D121" s="5" t="str">
         <v/>
@@ -11754,7 +12418,7 @@
         <v>EVENT</v>
       </c>
       <c r="G121" s="5" t="str">
-        <v>2020-06-23</v>
+        <v>2020-12-01</v>
       </c>
       <c r="H121" s="5" t="str">
         <v>EZkN8vYZwjR</v>
@@ -11762,13 +12426,13 @@
     </row>
     <row r="122">
       <c r="A122" s="4" t="str">
-        <v>sNxKiGDpkhf</v>
+        <v>sltshNgdZPv</v>
       </c>
       <c r="B122" s="4" t="str">
-        <v>DOR minus DON  (3-7 days)</v>
+        <v>Anaphylaxis_Rubella</v>
       </c>
       <c r="C122" s="4" t="str">
-        <v>Time interval - Notification and report(3-7 days)</v>
+        <v>Anaphylaxis_Rubella</v>
       </c>
       <c r="D122" s="4" t="str">
         <v/>
@@ -11788,13 +12452,13 @@
     </row>
     <row r="123">
       <c r="A123" s="5" t="str">
-        <v>sZzo3qMrAse</v>
+        <v>sNxKiGDpkhf</v>
       </c>
       <c r="B123" s="5" t="str">
-        <v>Seizures_PCV</v>
+        <v>DOR minus DON  (3-7 days)</v>
       </c>
       <c r="C123" s="5" t="str">
-        <v>Seizures_PCV</v>
+        <v>Time interval - Notification and report(3-7 days)</v>
       </c>
       <c r="D123" s="5" t="str">
         <v/>
@@ -11814,25 +12478,25 @@
     </row>
     <row r="124">
       <c r="A124" s="4" t="str">
-        <v>t48cRuFJ8gj</v>
+        <v>SZdnmO8NAvf</v>
       </c>
       <c r="B124" s="4" t="str">
-        <v>BCG</v>
+        <v>Autopsy not conducted</v>
       </c>
       <c r="C124" s="4" t="str">
-        <v>BCG</v>
+        <v>Autopsy not conducted</v>
       </c>
       <c r="D124" s="4" t="str">
         <v/>
       </c>
       <c r="E124" s="4" t="str">
-        <v/>
+        <v>Autopsy not conducted</v>
       </c>
       <c r="F124" s="4" t="str">
         <v>EVENT</v>
       </c>
       <c r="G124" s="4" t="str">
-        <v>2020-06-23</v>
+        <v>2020-12-17</v>
       </c>
       <c r="H124" s="4" t="str">
         <v>EZkN8vYZwjR</v>
@@ -11840,13 +12504,13 @@
     </row>
     <row r="125">
       <c r="A125" s="5" t="str">
-        <v>t67O8kqj8qz</v>
+        <v>sZzo3qMrAse</v>
       </c>
       <c r="B125" s="5" t="str">
-        <v>Severe local reaction</v>
+        <v>Seizures_PCV</v>
       </c>
       <c r="C125" s="5" t="str">
-        <v>Severe local reaction</v>
+        <v>Seizures_PCV</v>
       </c>
       <c r="D125" s="5" t="str">
         <v/>
@@ -11866,13 +12530,13 @@
     </row>
     <row r="126">
       <c r="A126" s="4" t="str">
-        <v>T85oQiVi8ha</v>
+        <v>t48cRuFJ8gj</v>
       </c>
       <c r="B126" s="4" t="str">
-        <v>Severe local reaction_Rubella</v>
+        <v>BCG</v>
       </c>
       <c r="C126" s="4" t="str">
-        <v>Severe local reaction_Rubella</v>
+        <v>BCG</v>
       </c>
       <c r="D126" s="4" t="str">
         <v/>
@@ -11892,13 +12556,13 @@
     </row>
     <row r="127">
       <c r="A127" s="5" t="str">
-        <v>tbQJ7C0DGOP</v>
+        <v>t67O8kqj8qz</v>
       </c>
       <c r="B127" s="5" t="str">
-        <v>Thromobocyctopenia_BCG 0.05</v>
+        <v>Severe local reaction</v>
       </c>
       <c r="C127" s="5" t="str">
-        <v>Thromobocyctopenia_BCG 0.05</v>
+        <v>Severe local reaction</v>
       </c>
       <c r="D127" s="5" t="str">
         <v/>
@@ -11918,13 +12582,13 @@
     </row>
     <row r="128">
       <c r="A128" s="4" t="str">
-        <v>TcJwyU0ikhq</v>
+        <v>T85oQiVi8ha</v>
       </c>
       <c r="B128" s="4" t="str">
-        <v xml:space="preserve">Abscess_BCG 0.05 </v>
+        <v>Severe local reaction_Rubella</v>
       </c>
       <c r="C128" s="4" t="str">
-        <v xml:space="preserve">Abscess_BCG 0.05 </v>
+        <v>Severe local reaction_Rubella</v>
       </c>
       <c r="D128" s="4" t="str">
         <v/>
@@ -11936,7 +12600,7 @@
         <v>EVENT</v>
       </c>
       <c r="G128" s="4" t="str">
-        <v>2020-11-18</v>
+        <v>2020-06-23</v>
       </c>
       <c r="H128" s="4" t="str">
         <v>EZkN8vYZwjR</v>
@@ -11944,13 +12608,13 @@
     </row>
     <row r="129">
       <c r="A129" s="5" t="str">
-        <v>Tdpl0H4xqH9</v>
+        <v>tbQJ7C0DGOP</v>
       </c>
       <c r="B129" s="5" t="str">
-        <v>Thromobocyctopenia_Rotavirus</v>
+        <v>Thromobocyctopenia_BCG 0.05</v>
       </c>
       <c r="C129" s="5" t="str">
-        <v>Thromobocyctopenia_Rotavirus</v>
+        <v>Thromobocyctopenia_BCG 0.05</v>
       </c>
       <c r="D129" s="5" t="str">
         <v/>
@@ -11970,13 +12634,13 @@
     </row>
     <row r="130">
       <c r="A130" s="4" t="str">
-        <v>tou3iHusGA8</v>
+        <v>TcJwyU0ikhq</v>
       </c>
       <c r="B130" s="4" t="str">
-        <v>AEFI Female</v>
+        <v xml:space="preserve">Abscess_BCG 0.05 </v>
       </c>
       <c r="C130" s="4" t="str">
-        <v>AEFI Female</v>
+        <v xml:space="preserve">Abscess_BCG 0.05 </v>
       </c>
       <c r="D130" s="4" t="str">
         <v/>
@@ -11985,7 +12649,7 @@
         <v/>
       </c>
       <c r="F130" s="4" t="str">
-        <v>ENROLLMENT</v>
+        <v>EVENT</v>
       </c>
       <c r="G130" s="4" t="str">
         <v>2020-11-18</v>
@@ -11996,13 +12660,13 @@
     </row>
     <row r="131">
       <c r="A131" s="5" t="str">
-        <v>TW98KhEVBZW</v>
+        <v>Tdpl0H4xqH9</v>
       </c>
       <c r="B131" s="5" t="str">
-        <v>Thromobocyctopenia_ Measles and Rubella</v>
+        <v>Thromobocyctopenia_Rotavirus</v>
       </c>
       <c r="C131" s="5" t="str">
-        <v>Thromobocyctopenia_ Measles and Rubella</v>
+        <v>Thromobocyctopenia_Rotavirus</v>
       </c>
       <c r="D131" s="5" t="str">
         <v/>
@@ -12022,13 +12686,13 @@
     </row>
     <row r="132">
       <c r="A132" s="4" t="str">
-        <v>Uaa2N5F0PpR</v>
+        <v>tou3iHusGA8</v>
       </c>
       <c r="B132" s="4" t="str">
-        <v>Seizures_IPV</v>
+        <v>AEFI Female</v>
       </c>
       <c r="C132" s="4" t="str">
-        <v>Seizures_IPV</v>
+        <v>AEFI Female</v>
       </c>
       <c r="D132" s="4" t="str">
         <v/>
@@ -12037,10 +12701,10 @@
         <v/>
       </c>
       <c r="F132" s="4" t="str">
-        <v>EVENT</v>
+        <v>ENROLLMENT</v>
       </c>
       <c r="G132" s="4" t="str">
-        <v>2020-06-23</v>
+        <v>2020-11-18</v>
       </c>
       <c r="H132" s="4" t="str">
         <v>EZkN8vYZwjR</v>
@@ -12048,13 +12712,13 @@
     </row>
     <row r="133">
       <c r="A133" s="5" t="str">
-        <v>UB2pUVgT4Og</v>
+        <v>TW98KhEVBZW</v>
       </c>
       <c r="B133" s="5" t="str">
-        <v>Fever_ Diphtheria-Tetanus-Pertussis (whole cell)-Hepatitis B</v>
+        <v>Thromobocyctopenia_ Measles and Rubella</v>
       </c>
       <c r="C133" s="5" t="str">
-        <v>Fever_ Diphtheria-Tetanus-Pertussis</v>
+        <v>Thromobocyctopenia_ Measles and Rubella</v>
       </c>
       <c r="D133" s="5" t="str">
         <v/>
@@ -12074,13 +12738,13 @@
     </row>
     <row r="134">
       <c r="A134" s="4" t="str">
-        <v>uCqFnRpK06Q</v>
+        <v>Uaa2N5F0PpR</v>
       </c>
       <c r="B134" s="4" t="str">
-        <v>DON minus Vaccination date (1-2 days)</v>
+        <v>Seizures_IPV</v>
       </c>
       <c r="C134" s="4" t="str">
-        <v>DON minus Vaccination date (1-2 days)</v>
+        <v>Seizures_IPV</v>
       </c>
       <c r="D134" s="4" t="str">
         <v/>
@@ -12100,13 +12764,13 @@
     </row>
     <row r="135">
       <c r="A135" s="5" t="str">
-        <v>ug6P9t3zboj</v>
+        <v>UB2pUVgT4Og</v>
       </c>
       <c r="B135" s="5" t="str">
-        <v>Encephalopathy_PCV</v>
+        <v>Fever_ Diphtheria-Tetanus-Pertussis (whole cell)-Hepatitis B</v>
       </c>
       <c r="C135" s="5" t="str">
-        <v>Encephalopathy_PCV</v>
+        <v>Fever_ Diphtheria-Tetanus-Pertussis</v>
       </c>
       <c r="D135" s="5" t="str">
         <v/>
@@ -12126,13 +12790,13 @@
     </row>
     <row r="136">
       <c r="A136" s="4" t="str">
-        <v>Uj0XsKWMihp</v>
+        <v>uCqFnRpK06Q</v>
       </c>
       <c r="B136" s="4" t="str">
-        <v xml:space="preserve">Toxic shock syndrome_BCG 0.05 </v>
+        <v>DON minus Vaccination date (1-2 days)</v>
       </c>
       <c r="C136" s="4" t="str">
-        <v xml:space="preserve">Toxic shock syndrome_BCG 0.05 </v>
+        <v>DON minus Vaccination date (1-2 days)</v>
       </c>
       <c r="D136" s="4" t="str">
         <v/>
@@ -12152,13 +12816,13 @@
     </row>
     <row r="137">
       <c r="A137" s="5" t="str">
-        <v>umAP5kafYSB</v>
+        <v>ug6P9t3zboj</v>
       </c>
       <c r="B137" s="5" t="str">
-        <v>DOR-N minus DON  (8-28 days)</v>
+        <v>Encephalopathy_PCV</v>
       </c>
       <c r="C137" s="5" t="str">
-        <v>DOR-N minus DON  (8-28 days)</v>
+        <v>Encephalopathy_PCV</v>
       </c>
       <c r="D137" s="5" t="str">
         <v/>
@@ -12178,13 +12842,13 @@
     </row>
     <row r="138">
       <c r="A138" s="4" t="str">
-        <v>UMT3uhTQtU9</v>
+        <v>Uj0XsKWMihp</v>
       </c>
       <c r="B138" s="4" t="str">
-        <v>Abscess_OPV</v>
+        <v xml:space="preserve">Toxic shock syndrome_BCG 0.05 </v>
       </c>
       <c r="C138" s="4" t="str">
-        <v>Abscess_OPV</v>
+        <v xml:space="preserve">Toxic shock syndrome_BCG 0.05 </v>
       </c>
       <c r="D138" s="4" t="str">
         <v/>
@@ -12204,13 +12868,13 @@
     </row>
     <row r="139">
       <c r="A139" s="5" t="str">
-        <v>UQqJCFotDrm</v>
+        <v>umAP5kafYSB</v>
       </c>
       <c r="B139" s="5" t="str">
-        <v>Abscess_BCG 0.1</v>
+        <v>DOR-N minus DON  (8-28 days)</v>
       </c>
       <c r="C139" s="5" t="str">
-        <v>Abscess_BCG 0.1</v>
+        <v>DOR-N minus DON  (8-28 days)</v>
       </c>
       <c r="D139" s="5" t="str">
         <v/>
@@ -12222,7 +12886,7 @@
         <v>EVENT</v>
       </c>
       <c r="G139" s="5" t="str">
-        <v>2020-11-18</v>
+        <v>2020-06-23</v>
       </c>
       <c r="H139" s="5" t="str">
         <v>EZkN8vYZwjR</v>
@@ -12230,13 +12894,13 @@
     </row>
     <row r="140">
       <c r="A140" s="4" t="str">
-        <v>UWYcYPKXsf9</v>
+        <v>UMT3uhTQtU9</v>
       </c>
       <c r="B140" s="4" t="str">
-        <v>DOR-N minus DOR (0 Days)</v>
+        <v>Abscess_OPV</v>
       </c>
       <c r="C140" s="4" t="str">
-        <v>DOR-N minus DOR (0 Days)</v>
+        <v>Abscess_OPV</v>
       </c>
       <c r="D140" s="4" t="str">
         <v/>
@@ -12256,13 +12920,13 @@
     </row>
     <row r="141">
       <c r="A141" s="5" t="str">
-        <v>VFl6Pl6JBx1</v>
+        <v>UQqJCFotDrm</v>
       </c>
       <c r="B141" s="5" t="str">
-        <v>Sepsis_Rubella</v>
+        <v>Abscess_BCG 0.1</v>
       </c>
       <c r="C141" s="5" t="str">
-        <v>Sepsis_Rubella</v>
+        <v>Abscess_BCG 0.1</v>
       </c>
       <c r="D141" s="5" t="str">
         <v/>
@@ -12274,7 +12938,7 @@
         <v>EVENT</v>
       </c>
       <c r="G141" s="5" t="str">
-        <v>2020-06-23</v>
+        <v>2020-11-18</v>
       </c>
       <c r="H141" s="5" t="str">
         <v>EZkN8vYZwjR</v>
@@ -12282,13 +12946,13 @@
     </row>
     <row r="142">
       <c r="A142" s="4" t="str">
-        <v>vHRDDC47TAg</v>
+        <v>UWYcYPKXsf9</v>
       </c>
       <c r="B142" s="4" t="str">
-        <v>Fever_IPV</v>
+        <v>DOR-N minus DOR (0 Days)</v>
       </c>
       <c r="C142" s="4" t="str">
-        <v>Fever_IPV</v>
+        <v>DOR-N minus DOR (0 Days)</v>
       </c>
       <c r="D142" s="4" t="str">
         <v/>
@@ -12308,13 +12972,13 @@
     </row>
     <row r="143">
       <c r="A143" s="5" t="str">
-        <v>vhslwmaPff6</v>
+        <v>VFl6Pl6JBx1</v>
       </c>
       <c r="B143" s="5" t="str">
-        <v>Anaphylaxis</v>
+        <v>Sepsis_Rubella</v>
       </c>
       <c r="C143" s="5" t="str">
-        <v>Anaphylaxis</v>
+        <v>Sepsis_Rubella</v>
       </c>
       <c r="D143" s="5" t="str">
         <v/>
@@ -12334,13 +12998,13 @@
     </row>
     <row r="144">
       <c r="A144" s="4" t="str">
-        <v>vIVN1GIUxcY</v>
+        <v>vHRDDC47TAg</v>
       </c>
       <c r="B144" s="4" t="str">
-        <v>Severe local reaction_Measles</v>
+        <v>Fever_IPV</v>
       </c>
       <c r="C144" s="4" t="str">
-        <v>Severe local reaction_Measles</v>
+        <v>Fever_IPV</v>
       </c>
       <c r="D144" s="4" t="str">
         <v/>
@@ -12360,13 +13024,13 @@
     </row>
     <row r="145">
       <c r="A145" s="5" t="str">
-        <v>vypPjV9K0WU</v>
+        <v>vhslwmaPff6</v>
       </c>
       <c r="B145" s="5" t="str">
-        <v>Pentavalent (DPT-Hep B-Hib)</v>
+        <v>Anaphylaxis</v>
       </c>
       <c r="C145" s="5" t="str">
-        <v xml:space="preserve"> Pentavalent (DPT-Hep B-Hib)</v>
+        <v>Anaphylaxis</v>
       </c>
       <c r="D145" s="5" t="str">
         <v/>
@@ -12378,7 +13042,7 @@
         <v>EVENT</v>
       </c>
       <c r="G145" s="5" t="str">
-        <v>2020-07-08</v>
+        <v>2020-06-23</v>
       </c>
       <c r="H145" s="5" t="str">
         <v>EZkN8vYZwjR</v>
@@ -12386,19 +13050,19 @@
     </row>
     <row r="146">
       <c r="A146" s="4" t="str">
-        <v>W0VdYADQBzE</v>
+        <v>vIVN1GIUxcY</v>
       </c>
       <c r="B146" s="4" t="str">
-        <v>Recovered/resolved with sequelae</v>
+        <v>Severe local reaction_Measles</v>
       </c>
       <c r="C146" s="4" t="str">
-        <v>Recovered/resolved with sequelae</v>
+        <v>Severe local reaction_Measles</v>
       </c>
       <c r="D146" s="4" t="str">
         <v/>
       </c>
       <c r="E146" s="4" t="str">
-        <v>AEFI Outcome - Recovered/resolved with sequelae</v>
+        <v/>
       </c>
       <c r="F146" s="4" t="str">
         <v>EVENT</v>
@@ -12412,13 +13076,13 @@
     </row>
     <row r="147">
       <c r="A147" s="5" t="str">
-        <v>W68jACyi77H</v>
+        <v>vypPjV9K0WU</v>
       </c>
       <c r="B147" s="5" t="str">
-        <v>DON minus DOO (8-28 days)</v>
+        <v>Pentavalent (DPT-Hep B-Hib)</v>
       </c>
       <c r="C147" s="5" t="str">
-        <v>DON minus DOO (8-28 days)</v>
+        <v xml:space="preserve"> Pentavalent (DPT-Hep B-Hib)</v>
       </c>
       <c r="D147" s="5" t="str">
         <v/>
@@ -12430,7 +13094,7 @@
         <v>EVENT</v>
       </c>
       <c r="G147" s="5" t="str">
-        <v>2020-06-23</v>
+        <v>2020-07-08</v>
       </c>
       <c r="H147" s="5" t="str">
         <v>EZkN8vYZwjR</v>
@@ -12438,19 +13102,19 @@
     </row>
     <row r="148">
       <c r="A148" s="4" t="str">
-        <v>WjCh3fvPBLu</v>
+        <v>W0VdYADQBzE</v>
       </c>
       <c r="B148" s="4" t="str">
-        <v>DON minus Vaccination date (3-7 days)</v>
+        <v>Recovered/resolved with sequelae</v>
       </c>
       <c r="C148" s="4" t="str">
-        <v>DON minus Vaccination date (3-7 days)</v>
+        <v>Recovered/resolved with sequelae</v>
       </c>
       <c r="D148" s="4" t="str">
         <v/>
       </c>
       <c r="E148" s="4" t="str">
-        <v/>
+        <v>AEFI Outcome - Recovered/resolved with sequelae</v>
       </c>
       <c r="F148" s="4" t="str">
         <v>EVENT</v>
@@ -12464,13 +13128,13 @@
     </row>
     <row r="149">
       <c r="A149" s="5" t="str">
-        <v>wjqdKS640Ra</v>
+        <v>W68jACyi77H</v>
       </c>
       <c r="B149" s="5" t="str">
-        <v>Encephalopathy_ Measles and Rubella</v>
+        <v>DON minus DOO (8-28 days)</v>
       </c>
       <c r="C149" s="5" t="str">
-        <v>Encephalopathy_ Measles and Rubella</v>
+        <v>DON minus DOO (8-28 days)</v>
       </c>
       <c r="D149" s="5" t="str">
         <v/>
@@ -12490,13 +13154,13 @@
     </row>
     <row r="150">
       <c r="A150" s="4" t="str">
-        <v>WKaQnYTuq5Q</v>
+        <v>WjCh3fvPBLu</v>
       </c>
       <c r="B150" s="4" t="str">
-        <v>Severe local reaction_Hep B</v>
+        <v>DON minus Vaccination date (3-7 days)</v>
       </c>
       <c r="C150" s="4" t="str">
-        <v>Severe local reaction_Hepatitis B (Hep B)</v>
+        <v>DON minus Vaccination date (3-7 days)</v>
       </c>
       <c r="D150" s="4" t="str">
         <v/>
@@ -12516,13 +13180,13 @@
     </row>
     <row r="151">
       <c r="A151" s="5" t="str">
-        <v>WN2pjy6II60</v>
+        <v>wjqdKS640Ra</v>
       </c>
       <c r="B151" s="5" t="str">
-        <v>Seizures_ Measles and Rubella</v>
+        <v>Encephalopathy_ Measles and Rubella</v>
       </c>
       <c r="C151" s="5" t="str">
-        <v>Seizures_ Measles and Rubella</v>
+        <v>Encephalopathy_ Measles and Rubella</v>
       </c>
       <c r="D151" s="5" t="str">
         <v/>
@@ -12542,13 +13206,13 @@
     </row>
     <row r="152">
       <c r="A152" s="4" t="str">
-        <v>wouuYQdgDNm</v>
+        <v>WKaQnYTuq5Q</v>
       </c>
       <c r="B152" s="4" t="str">
-        <v>Abscess_Rubella</v>
+        <v>Severe local reaction_Hep B</v>
       </c>
       <c r="C152" s="4" t="str">
-        <v>Abscess_Rubella</v>
+        <v>Severe local reaction_Hepatitis B (Hep B)</v>
       </c>
       <c r="D152" s="4" t="str">
         <v/>
@@ -12568,13 +13232,13 @@
     </row>
     <row r="153">
       <c r="A153" s="5" t="str">
-        <v>WUIUQlDUPPL</v>
+        <v>WN2pjy6II60</v>
       </c>
       <c r="B153" s="5" t="str">
-        <v>Anaphylaxis_Hep B</v>
+        <v>Seizures_ Measles and Rubella</v>
       </c>
       <c r="C153" s="5" t="str">
-        <v>Anaphylaxis_Hepatitis B (Hep B)</v>
+        <v>Seizures_ Measles and Rubella</v>
       </c>
       <c r="D153" s="5" t="str">
         <v/>
@@ -12594,13 +13258,13 @@
     </row>
     <row r="154">
       <c r="A154" s="4" t="str">
-        <v>X38bO4P7sGh</v>
+        <v>wouuYQdgDNm</v>
       </c>
       <c r="B154" s="4" t="str">
-        <v>Severe local reaction_OPV</v>
+        <v>Abscess_Rubella</v>
       </c>
       <c r="C154" s="4" t="str">
-        <v>Severe local reaction_OPV</v>
+        <v>Abscess_Rubella</v>
       </c>
       <c r="D154" s="4" t="str">
         <v/>
@@ -12620,13 +13284,13 @@
     </row>
     <row r="155">
       <c r="A155" s="5" t="str">
-        <v>xNEhVG0vNrx</v>
+        <v>WUIUQlDUPPL</v>
       </c>
       <c r="B155" s="5" t="str">
-        <v>Rubella</v>
+        <v>Anaphylaxis_Hep B</v>
       </c>
       <c r="C155" s="5" t="str">
-        <v>Rubella</v>
+        <v>Anaphylaxis_Hepatitis B (Hep B)</v>
       </c>
       <c r="D155" s="5" t="str">
         <v/>
@@ -12638,7 +13302,7 @@
         <v>EVENT</v>
       </c>
       <c r="G155" s="5" t="str">
-        <v>2020-07-08</v>
+        <v>2020-06-23</v>
       </c>
       <c r="H155" s="5" t="str">
         <v>EZkN8vYZwjR</v>
@@ -12646,13 +13310,13 @@
     </row>
     <row r="156">
       <c r="A156" s="4" t="str">
-        <v>xqWxmAYnkiF</v>
+        <v>X38bO4P7sGh</v>
       </c>
       <c r="B156" s="4" t="str">
-        <v>Toxic shock syndrome_IPV</v>
+        <v>Severe local reaction_OPV</v>
       </c>
       <c r="C156" s="4" t="str">
-        <v>Toxic shock syndrome_IPV</v>
+        <v>Severe local reaction_OPV</v>
       </c>
       <c r="D156" s="4" t="str">
         <v/>
@@ -12672,13 +13336,13 @@
     </row>
     <row r="157">
       <c r="A157" s="5" t="str">
-        <v>xuIhbUYrX4H</v>
+        <v>xNEhVG0vNrx</v>
       </c>
       <c r="B157" s="5" t="str">
-        <v>DOR minus DON  (8-28 days)</v>
+        <v>Rubella</v>
       </c>
       <c r="C157" s="5" t="str">
-        <v>Time interval vaccination and onset(8-28 days)</v>
+        <v>Rubella</v>
       </c>
       <c r="D157" s="5" t="str">
         <v/>
@@ -12690,7 +13354,7 @@
         <v>EVENT</v>
       </c>
       <c r="G157" s="5" t="str">
-        <v>2020-06-23</v>
+        <v>2020-07-08</v>
       </c>
       <c r="H157" s="5" t="str">
         <v>EZkN8vYZwjR</v>
@@ -12698,13 +13362,13 @@
     </row>
     <row r="158">
       <c r="A158" s="4" t="str">
-        <v>Y23JvC6umIN</v>
+        <v>xqWxmAYnkiF</v>
       </c>
       <c r="B158" s="4" t="str">
-        <v>Anaphylaxis_ Measles and Rubella</v>
+        <v>Toxic shock syndrome_IPV</v>
       </c>
       <c r="C158" s="4" t="str">
-        <v>Anaphylaxis_ Measles and Rubella</v>
+        <v>Toxic shock syndrome_IPV</v>
       </c>
       <c r="D158" s="4" t="str">
         <v/>
@@ -12724,13 +13388,13 @@
     </row>
     <row r="159">
       <c r="A159" s="5" t="str">
-        <v>y8CxGJwjdgl</v>
+        <v>xuIhbUYrX4H</v>
       </c>
       <c r="B159" s="5" t="str">
-        <v>DON minus DOO (1-2 days)</v>
+        <v>DOR minus DON  (8-28 days)</v>
       </c>
       <c r="C159" s="5" t="str">
-        <v>DON minus DOO (1-2 days)</v>
+        <v>Time interval vaccination and onset(8-28 days)</v>
       </c>
       <c r="D159" s="5" t="str">
         <v/>
@@ -12750,13 +13414,13 @@
     </row>
     <row r="160">
       <c r="A160" s="4" t="str">
-        <v>YBOBORMYJJk</v>
+        <v>Y23JvC6umIN</v>
       </c>
       <c r="B160" s="4" t="str">
-        <v>DON minus DOO (0 days)</v>
+        <v>Anaphylaxis_ Measles and Rubella</v>
       </c>
       <c r="C160" s="4" t="str">
-        <v>DON minus DOO (0 days)</v>
+        <v>Anaphylaxis_ Measles and Rubella</v>
       </c>
       <c r="D160" s="4" t="str">
         <v/>
@@ -12776,13 +13440,13 @@
     </row>
     <row r="161">
       <c r="A161" s="5" t="str">
-        <v>z4f3yTWehED</v>
+        <v>y8CxGJwjdgl</v>
       </c>
       <c r="B161" s="5" t="str">
-        <v xml:space="preserve">Seizures_BCG 0.05 </v>
+        <v>DON minus DOO (1-2 days)</v>
       </c>
       <c r="C161" s="5" t="str">
-        <v xml:space="preserve">Seizures_BCG 0.05 </v>
+        <v>DON minus DOO (1-2 days)</v>
       </c>
       <c r="D161" s="5" t="str">
         <v/>
@@ -12802,13 +13466,13 @@
     </row>
     <row r="162">
       <c r="A162" s="4" t="str">
-        <v>zG7I2NGJ24G</v>
+        <v>YBOBORMYJJk</v>
       </c>
       <c r="B162" s="4" t="str">
-        <v>Seizures_Rotavirus</v>
+        <v>DON minus DOO (0 days)</v>
       </c>
       <c r="C162" s="4" t="str">
-        <v>Seizures_Rotavirus</v>
+        <v>DON minus DOO (0 days)</v>
       </c>
       <c r="D162" s="4" t="str">
         <v/>
@@ -12828,25 +13492,25 @@
     </row>
     <row r="163">
       <c r="A163" s="5" t="str">
-        <v>ZHtsQEEuVQc</v>
+        <v>z4f3yTWehED</v>
       </c>
       <c r="B163" s="5" t="str">
-        <v>Autopsy done</v>
+        <v xml:space="preserve">Seizures_BCG 0.05 </v>
       </c>
       <c r="C163" s="5" t="str">
-        <v>Autopsy done</v>
+        <v xml:space="preserve">Seizures_BCG 0.05 </v>
       </c>
       <c r="D163" s="5" t="str">
         <v/>
       </c>
       <c r="E163" s="5" t="str">
-        <v>AEFI Outcome - Atopsy done</v>
+        <v/>
       </c>
       <c r="F163" s="5" t="str">
         <v>EVENT</v>
       </c>
       <c r="G163" s="5" t="str">
-        <v>2020-12-14</v>
+        <v>2020-06-23</v>
       </c>
       <c r="H163" s="5" t="str">
         <v>EZkN8vYZwjR</v>
@@ -12854,13 +13518,13 @@
     </row>
     <row r="164">
       <c r="A164" s="4" t="str">
-        <v>ZIcgcQHueEE</v>
+        <v>zG7I2NGJ24G</v>
       </c>
       <c r="B164" s="4" t="str">
-        <v>Toxic shock syndrome_BCG 0.1</v>
+        <v>Seizures_Rotavirus</v>
       </c>
       <c r="C164" s="4" t="str">
-        <v>Toxic shock syndrome_BCG 0.1</v>
+        <v>Seizures_Rotavirus</v>
       </c>
       <c r="D164" s="4" t="str">
         <v/>
@@ -12880,13 +13544,13 @@
     </row>
     <row r="165">
       <c r="A165" s="5" t="str">
-        <v>zSnQRwBt4ll</v>
+        <v>ZHtsQEEuVQc</v>
       </c>
       <c r="B165" s="5" t="str">
-        <v>Measles</v>
+        <v>Autopsy conducted</v>
       </c>
       <c r="C165" s="5" t="str">
-        <v>Measles</v>
+        <v>Autopsy conducted</v>
       </c>
       <c r="D165" s="5" t="str">
         <v/>
@@ -12898,7 +13562,7 @@
         <v>EVENT</v>
       </c>
       <c r="G165" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-12-17</v>
       </c>
       <c r="H165" s="5" t="str">
         <v>EZkN8vYZwjR</v>
@@ -12906,13 +13570,13 @@
     </row>
     <row r="166">
       <c r="A166" s="4" t="str">
-        <v>zv4DFyUljQA</v>
+        <v>ZIcgcQHueEE</v>
       </c>
       <c r="B166" s="4" t="str">
-        <v>Fever_ Pentavalent</v>
+        <v>Toxic shock syndrome_BCG 0.1</v>
       </c>
       <c r="C166" s="4" t="str">
-        <v>Fever_ Pentavalent (DPT-Hep B-Hib)</v>
+        <v>Toxic shock syndrome_BCG 0.1</v>
       </c>
       <c r="D166" s="4" t="str">
         <v/>
@@ -12932,13 +13596,13 @@
     </row>
     <row r="167">
       <c r="A167" s="5" t="str">
-        <v>zwIhlHdsJbB</v>
+        <v>zSnQRwBt4ll</v>
       </c>
       <c r="B167" s="5" t="str">
-        <v>Encephalopathy_OPV</v>
+        <v>Measles</v>
       </c>
       <c r="C167" s="5" t="str">
-        <v>Encephalopathy_OPV</v>
+        <v>Measles</v>
       </c>
       <c r="D167" s="5" t="str">
         <v/>
@@ -12950,7 +13614,7 @@
         <v>EVENT</v>
       </c>
       <c r="G167" s="5" t="str">
-        <v>2020-06-23</v>
+        <v>2020-08-04</v>
       </c>
       <c r="H167" s="5" t="str">
         <v>EZkN8vYZwjR</v>
@@ -12958,27 +13622,79 @@
     </row>
     <row r="168">
       <c r="A168" s="4" t="str">
+        <v>zv4DFyUljQA</v>
+      </c>
+      <c r="B168" s="4" t="str">
+        <v>Fever_ Pentavalent</v>
+      </c>
+      <c r="C168" s="4" t="str">
+        <v>Fever_ Pentavalent (DPT-Hep B-Hib)</v>
+      </c>
+      <c r="D168" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E168" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F168" s="4" t="str">
+        <v>EVENT</v>
+      </c>
+      <c r="G168" s="4" t="str">
+        <v>2020-06-23</v>
+      </c>
+      <c r="H168" s="4" t="str">
+        <v>EZkN8vYZwjR</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="5" t="str">
+        <v>zwIhlHdsJbB</v>
+      </c>
+      <c r="B169" s="5" t="str">
+        <v>Encephalopathy_OPV</v>
+      </c>
+      <c r="C169" s="5" t="str">
+        <v>Encephalopathy_OPV</v>
+      </c>
+      <c r="D169" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E169" s="5" t="str">
+        <v/>
+      </c>
+      <c r="F169" s="5" t="str">
+        <v>EVENT</v>
+      </c>
+      <c r="G169" s="5" t="str">
+        <v>2020-06-23</v>
+      </c>
+      <c r="H169" s="5" t="str">
+        <v>EZkN8vYZwjR</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="4" t="str">
         <v>zzD1p4HBh4p</v>
       </c>
-      <c r="B168" s="4" t="str">
+      <c r="B170" s="4" t="str">
         <v>Sepsis_PCV</v>
       </c>
-      <c r="C168" s="4" t="str">
+      <c r="C170" s="4" t="str">
         <v>Sepsis_PCV</v>
       </c>
-      <c r="D168" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E168" s="4" t="str">
-        <v/>
-      </c>
-      <c r="F168" s="4" t="str">
-        <v>EVENT</v>
-      </c>
-      <c r="G168" s="4" t="str">
-        <v>2020-06-23</v>
-      </c>
-      <c r="H168" s="4" t="str">
+      <c r="D170" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E170" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F170" s="4" t="str">
+        <v>EVENT</v>
+      </c>
+      <c r="G170" s="4" t="str">
+        <v>2020-06-23</v>
+      </c>
+      <c r="H170" s="4" t="str">
         <v>EZkN8vYZwjR</v>
       </c>
     </row>
@@ -12988,7 +13704,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -13019,16 +13735,16 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>ckWJPewuqOQ</v>
+        <v>asGxpjSTvhZ</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>Show warning - date of onset is before date of vaccination</v>
+        <v>Assign text "Died" in outcome if serious event reported is "Death"</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>Show warning if date of onset is before date of vaccination</v>
+        <v/>
       </c>
       <c r="D2" s="4" t="str">
-        <v>2020-11-29</v>
+        <v>2020-12-16</v>
       </c>
       <c r="E2" s="4" t="str">
         <v>EZkN8vYZwjR</v>
@@ -13036,16 +13752,16 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>f2kBCb35F4Q</v>
+        <v>ckWJPewuqOQ</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>Hide severe local reaction type if severe local reaction is not true</v>
+        <v>Show warning - date of onset is before date of vaccination</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v/>
+        <v>Show warning if date of onset is before date of vaccination</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>2020-06-23</v>
+        <v>2020-11-29</v>
       </c>
       <c r="E3" s="5" t="str">
         <v>EZkN8vYZwjR</v>
@@ -13053,16 +13769,16 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>G2OQqzZhWLo</v>
+        <v>DJypnhEDvCt</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>Hide vaccine 2 and 3 details sections if vaccine 1 has no value</v>
+        <v>Hide "Date of death" and "Autopsy conducted" if outcome is not "Death"</v>
       </c>
       <c r="C4" s="4" t="str">
         <v/>
       </c>
       <c r="D4" s="4" t="str">
-        <v>2020-06-23</v>
+        <v>2020-12-16</v>
       </c>
       <c r="E4" s="4" t="str">
         <v>EZkN8vYZwjR</v>
@@ -13070,16 +13786,16 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>gOsdoU0rUrZ</v>
+        <v>f2kBCb35F4Q</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>Show warning - Investigation planned date is before date of vaccination</v>
+        <v>Hide severe local reaction type if severe local reaction is not true</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>Show warning if nvestigation planned date is before date of vaccination</v>
+        <v/>
       </c>
       <c r="D5" s="5" t="str">
-        <v>2020-11-29</v>
+        <v>2020-06-23</v>
       </c>
       <c r="E5" s="5" t="str">
         <v>EZkN8vYZwjR</v>
@@ -13087,10 +13803,10 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>k4VQ6HN3ViP</v>
+        <v>G2OQqzZhWLo</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>Hide Other Vaccine (Specify)</v>
+        <v>Hide vaccine 2 and 3 details sections if vaccine 1 has no value</v>
       </c>
       <c r="C6" s="4" t="str">
         <v/>
@@ -13104,16 +13820,16 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>Llp4psRq1rd</v>
+        <v>gOsdoU0rUrZ</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>Hide vaccine 3 details section if vaccine 2 has no value</v>
+        <v>Show warning - Investigation planned date is before date of vaccination</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v/>
+        <v>Show warning if nvestigation planned date is before date of vaccination</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>2020-06-23</v>
+        <v>2020-11-29</v>
       </c>
       <c r="E7" s="5" t="str">
         <v>EZkN8vYZwjR</v>
@@ -13121,16 +13837,16 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>nict9QqhO4r</v>
+        <v>k4VQ6HN3ViP</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>Show warning - date of vaccination is before date of reconstitution</v>
+        <v>Hide Other Vaccine (Specify)</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>Show warning if date of vaccination is before date of reconstitution</v>
+        <v/>
       </c>
       <c r="D8" s="4" t="str">
-        <v>2020-11-29</v>
+        <v>2020-06-23</v>
       </c>
       <c r="E8" s="4" t="str">
         <v>EZkN8vYZwjR</v>
@@ -13138,10 +13854,10 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>oOKWEjvSmv1</v>
+        <v>Llp4psRq1rd</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>Hide diluent  3 details section if diluent 2 has no value</v>
+        <v>Hide vaccine 3 details section if vaccine 2 has no value</v>
       </c>
       <c r="C9" s="5" t="str">
         <v/>
@@ -13155,16 +13871,16 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>p8T8Nfw2efM</v>
+        <v>nict9QqhO4r</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>Send notification when investigation needed</v>
+        <v>Show warning - date of vaccination is before date of reconstitution</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v/>
+        <v>Show warning if date of vaccination is before date of reconstitution</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>2020-12-09</v>
+        <v>2020-11-29</v>
       </c>
       <c r="E10" s="4" t="str">
         <v>EZkN8vYZwjR</v>
@@ -13172,16 +13888,16 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>PKBOJnDbrKx</v>
+        <v>oOKWEjvSmv1</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>Send notification when investigation not needed and stage approved</v>
+        <v>Hide diluent  3 details section if diluent 2 has no value</v>
       </c>
       <c r="C11" s="5" t="str">
         <v/>
       </c>
       <c r="D11" s="5" t="str">
-        <v>2020-12-09</v>
+        <v>2020-06-23</v>
       </c>
       <c r="E11" s="5" t="str">
         <v>EZkN8vYZwjR</v>
@@ -13189,16 +13905,16 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>r4jEt62EW64</v>
+        <v>p8T8Nfw2efM</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>Hide Other Vaccine 3 (Specify)</v>
+        <v>Send notification when investigation needed</v>
       </c>
       <c r="C12" s="4" t="str">
         <v/>
       </c>
       <c r="D12" s="4" t="str">
-        <v>2020-06-23</v>
+        <v>2020-12-09</v>
       </c>
       <c r="E12" s="4" t="str">
         <v>EZkN8vYZwjR</v>
@@ -13206,16 +13922,16 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>tFcbiFhN3V6</v>
+        <v>PKBOJnDbrKx</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>Hide Severe events section</v>
+        <v>Send notification when investigation not needed and stage approved</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>if severe events are not reported, hide severe events reported section</v>
+        <v/>
       </c>
       <c r="D13" s="5" t="str">
-        <v>2020-06-23</v>
+        <v>2020-12-09</v>
       </c>
       <c r="E13" s="5" t="str">
         <v>EZkN8vYZwjR</v>
@@ -13223,16 +13939,16 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>TO0n5S5xc5D</v>
+        <v>r4jEt62EW64</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>Show warning - date of vaccination is before date of birth</v>
+        <v>Hide Other Vaccine 3 (Specify)</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>Show warning if date of vaccination is before date of birth</v>
+        <v/>
       </c>
       <c r="D14" s="4" t="str">
-        <v>2020-11-29</v>
+        <v>2020-06-23</v>
       </c>
       <c r="E14" s="4" t="str">
         <v>EZkN8vYZwjR</v>
@@ -13240,13 +13956,13 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>u3zhEvjd4gV</v>
+        <v>tFcbiFhN3V6</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>Hide diluent 2 and 3 details sections if diluent 1 has no value</v>
+        <v>Hide Severe events section</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v/>
+        <v>if severe events are not reported, hide severe events reported section</v>
       </c>
       <c r="D15" s="5" t="str">
         <v>2020-06-23</v>
@@ -13257,13 +13973,13 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>uCbmjtwtTLx</v>
+        <v>TO0n5S5xc5D</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>Show warning - date of reporting at national level is before date of reporting</v>
+        <v>Show warning - date of vaccination is before date of birth</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>Show warning if date of reporting at national level is before date of reporting</v>
+        <v>Show warning if date of vaccination is before date of birth</v>
       </c>
       <c r="D16" s="4" t="str">
         <v>2020-11-29</v>
@@ -13274,16 +13990,16 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>uIR45kKQ8jk</v>
+        <v>u3zhEvjd4gV</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>Show warning - date of notification is before date of vaccination</v>
+        <v>Hide diluent 2 and 3 details sections if diluent 1 has no value</v>
       </c>
       <c r="C17" s="5" t="str">
-        <v>Show warning if date of notification is before date of vaccination</v>
+        <v/>
       </c>
       <c r="D17" s="5" t="str">
-        <v>2020-11-29</v>
+        <v>2020-06-23</v>
       </c>
       <c r="E17" s="5" t="str">
         <v>EZkN8vYZwjR</v>
@@ -13291,16 +14007,16 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>Vgs7q2Ev5zQ</v>
+        <v>uCbmjtwtTLx</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>Hide Other Vaccine 4 (Specify)</v>
+        <v>Show warning - date of reporting at national level is before date of reporting</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v/>
+        <v>Show warning if date of reporting at national level is before date of reporting</v>
       </c>
       <c r="D18" s="4" t="str">
-        <v>2020-06-23</v>
+        <v>2020-11-29</v>
       </c>
       <c r="E18" s="4" t="str">
         <v>EZkN8vYZwjR</v>
@@ -13308,16 +14024,16 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>w080mrOnVjo</v>
+        <v>uIR45kKQ8jk</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>Hide Other Vaccine 2 (Specify)</v>
+        <v>Show warning - date of notification is before date of vaccination</v>
       </c>
       <c r="C19" s="5" t="str">
-        <v/>
+        <v>Show warning if date of notification is before date of vaccination</v>
       </c>
       <c r="D19" s="5" t="str">
-        <v>2020-06-23</v>
+        <v>2020-11-29</v>
       </c>
       <c r="E19" s="5" t="str">
         <v>EZkN8vYZwjR</v>
@@ -13325,10 +14041,10 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>WgPhady3ZoS</v>
+        <v>Vgs7q2Ev5zQ</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>Hide seizure type if seizure is not true</v>
+        <v>Hide Other Vaccine 4 (Specify)</v>
       </c>
       <c r="C20" s="4" t="str">
         <v/>
@@ -13342,13 +14058,13 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>xUui1kMwCIR</v>
+        <v>w080mrOnVjo</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>Hide Investigation planned and investigation date</v>
+        <v>Hide Other Vaccine 2 (Specify)</v>
       </c>
       <c r="C21" s="5" t="str">
-        <v>Hide Investigation planned and investigation date when investigation is not needed in first level approval</v>
+        <v/>
       </c>
       <c r="D21" s="5" t="str">
         <v>2020-06-23</v>
@@ -13359,18 +14075,52 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
+        <v>WgPhady3ZoS</v>
+      </c>
+      <c r="B22" s="4" t="str">
+        <v>Hide seizure type if seizure is not true</v>
+      </c>
+      <c r="C22" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D22" s="4" t="str">
+        <v>2020-06-23</v>
+      </c>
+      <c r="E22" s="4" t="str">
+        <v>EZkN8vYZwjR</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="str">
+        <v>xUui1kMwCIR</v>
+      </c>
+      <c r="B23" s="5" t="str">
+        <v>Hide Investigation planned and investigation date</v>
+      </c>
+      <c r="C23" s="5" t="str">
+        <v>Hide Investigation planned and investigation date when investigation is not needed in first level approval</v>
+      </c>
+      <c r="D23" s="5" t="str">
+        <v>2020-06-23</v>
+      </c>
+      <c r="E23" s="5" t="str">
+        <v>EZkN8vYZwjR</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="str">
         <v>YOik9SX7kC3</v>
       </c>
-      <c r="B22" s="4" t="str">
+      <c r="B24" s="4" t="str">
         <v>Show warning - date of death is before date of onset</v>
       </c>
-      <c r="C22" s="4" t="str">
+      <c r="C24" s="4" t="str">
         <v>Show warning if date of death is before date of onset (date AEFI started)</v>
       </c>
-      <c r="D22" s="4" t="str">
+      <c r="D24" s="4" t="str">
         <v>2020-11-29</v>
       </c>
-      <c r="E22" s="4" t="str">
+      <c r="E24" s="4" t="str">
         <v>EZkN8vYZwjR</v>
       </c>
     </row>
